--- a/data/hotels_by_city/Houston/Houston_shard_329.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_329.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="550">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56701-d223655-Reviews-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Houston-North-Spring-Area.h446056.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531275208531&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=05dcce65-96a5-4f22-8025-c9ed8dfc3e85&amp;mctc=9&amp;exp_dp=89&amp;exp_ts=1531275209206&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1542 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r593885927-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>223655</t>
+  </si>
+  <si>
+    <t>593885927</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>No rooms after we reserved two weeks ago</t>
+  </si>
+  <si>
+    <t>Drove 9 hours to the hotel only to find out our rooms was not what we reserved. The lady working on 7-07 was rude and told us there was a glitch and she could not really do anything about it . We have three children and  the other party as well had three children there was nothing left in the area and drove down a bit farther to a super nice Marriot . Should had known better ... really wish a manager would contact me. Called corporate and lady hung up.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Drove 9 hours to the hotel only to find out our rooms was not what we reserved. The lady working on 7-07 was rude and told us there was a glitch and she could not really do anything about it . We have three children and  the other party as well had three children there was nothing left in the area and drove down a bit farther to a super nice Marriot . Should had known better ... really wish a manager would contact me. Called corporate and lady hung up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r574714816-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>574714816</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Weekend stay</t>
+  </si>
+  <si>
+    <t>Located on busy service drive, the immediate area is tired looking. But once inside, you’re greeted by super friendly accommodating staff. The breakfast area was clean and well stocked, (breakfast lady was super sweet) The hotel, parking lot and room were clean and well maintained . We had a good night sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2018</t>
+  </si>
+  <si>
+    <t>Located on busy service drive, the immediate area is tired looking. But once inside, you’re greeted by super friendly accommodating staff. The breakfast area was clean and well stocked, (breakfast lady was super sweet) The hotel, parking lot and room were clean and well maintained . We had a good night sleep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r563598627-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>563598627</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Soccer trip</t>
+  </si>
+  <si>
+    <t>This hotel is a good hotel for families.  It is s clean hotel and the staff is very friendly.  The breakfast could use a little tweaking such as, having an oatmeal warmer instead of packets.  It has a gym area and a pool however, we did not take advantage of the use.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded March 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is a good hotel for families.  It is s clean hotel and the staff is very friendly.  The breakfast could use a little tweaking such as, having an oatmeal warmer instead of packets.  It has a gym area and a pool however, we did not take advantage of the use.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r516074764-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>516074764</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Overall great place just a few minor things</t>
+  </si>
+  <si>
+    <t>Starting with the positive easy to find and access, great food selection for breakfast, friendly staff, good size rooms and shower.The hotel and room had a musky / moldy smell to it in my opinion.  The air conditioner in our room was possessed and had a mind of it own, but when it was working it was good and cold. I am one of the crazy people that take black lights with me and check everything.  Overall room was clean except floors and headboard.  Don’t know what some of it was don’t think I want to know.  Room 304. With all that we will still go backMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Starting with the positive easy to find and access, great food selection for breakfast, friendly staff, good size rooms and shower.The hotel and room had a musky / moldy smell to it in my opinion.  The air conditioner in our room was possessed and had a mind of it own, but when it was working it was good and cold. I am one of the crazy people that take black lights with me and check everything.  Overall room was clean except floors and headboard.  Don’t know what some of it was don’t think I want to know.  Room 304. With all that we will still go backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r511951660-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>511951660</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>The suites are a good size but the smell of mold is overwhelming</t>
+  </si>
+  <si>
+    <t>I stayed at this property on four different occasions. The first time it was pleasant but our room had an odor of room freshener that was very strong. The second time we were on the first floor and the stay was fine. The third time we were on the second floor and had to change rooms because of the overwhelming mold smell. The fourth and last time we stayed we arrived late and our room smelled real bad from mold again. On every occasion our room was never cleaned above just acceptable. I love the room layouts and roominess of the suites but can not handle smelling mold and filth so we will never be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this property on four different occasions. The first time it was pleasant but our room had an odor of room freshener that was very strong. The second time we were on the first floor and the stay was fine. The third time we were on the second floor and had to change rooms because of the overwhelming mold smell. The fourth and last time we stayed we arrived late and our room smelled real bad from mold again. On every occasion our room was never cleaned above just acceptable. I love the room layouts and roominess of the suites but can not handle smelling mold and filth so we will never be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r508046672-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>508046672</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Very nice hotel over I-45 In Conroe, Texas, it is very clean, location is good, crossing the street there is a huge outback, it has a big pool in the back of the building, very very comfortable hotel ,MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel over I-45 In Conroe, Texas, it is very clean, location is good, crossing the street there is a huge outback, it has a big pool in the back of the building, very very comfortable hotel ,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r485989780-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>485989780</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Could of done better</t>
+  </si>
+  <si>
+    <t>Use to be our favorite hotel to reside in,  Never Again, the employee John seemed extremely sympathetic to the situation of the inconsiderate individuals great customer service, if you suffer from migraines or need a good nights rest THIS IS NOT THE PLACE FOR YOU! AGAIN IF YOU NEED TO SLEEP AT NIGHT THIS NOT THE PLACE FOR YOU! Clean but I had to ask the cleaning person for an all purpose spray to clean the shower head it was filthy and definitely needed to be replaced, was suppose to stay for the weekend ended up leaving before check out and didn't bother to eat their breakfast, checked out a day earlier and the gentleman at the front desk was kind enough to apologize and refund me my money from the second day that I decided not to stay. WILL NEVER AGAIN BE LOYAL TO HOLIDAY INN EXPRESSMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Use to be our favorite hotel to reside in,  Never Again, the employee John seemed extremely sympathetic to the situation of the inconsiderate individuals great customer service, if you suffer from migraines or need a good nights rest THIS IS NOT THE PLACE FOR YOU! AGAIN IF YOU NEED TO SLEEP AT NIGHT THIS NOT THE PLACE FOR YOU! Clean but I had to ask the cleaning person for an all purpose spray to clean the shower head it was filthy and definitely needed to be replaced, was suppose to stay for the weekend ended up leaving before check out and didn't bother to eat their breakfast, checked out a day earlier and the gentleman at the front desk was kind enough to apologize and refund me my money from the second day that I decided not to stay. WILL NEVER AGAIN BE LOYAL TO HOLIDAY INN EXPRESSMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r485166255-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>485166255</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Even though we were not using them we were impressed with all the accessibility features in this hotel.</t>
+  </si>
+  <si>
+    <t>Spacious, clean and well decorated room. Large seating area for breakfast which had excellent selection of breakfast foods. Computer for checking in with airline including a printer to print boarding passes!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Spacious, clean and well decorated room. Large seating area for breakfast which had excellent selection of breakfast foods. Computer for checking in with airline including a printer to print boarding passes!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r484893627-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>484893627</t>
+  </si>
+  <si>
+    <t>Great property</t>
+  </si>
+  <si>
+    <t>Stayed with my husband two weekends in a row and both times the staff was helpful and friendly, the rooms were spacious and clean and the bed was very comfy.  We usually stay in much more expensive properties but ended up here for convenience. So glad we did!  The price is great and rivals those "big" guys. We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed with my husband two weekends in a row and both times the staff was helpful and friendly, the rooms were spacious and clean and the bed was very comfy.  We usually stay in much more expensive properties but ended up here for convenience. So glad we did!  The price is great and rivals those "big" guys. We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r481099408-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>481099408</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>NEVER booking with Holiday Inn again</t>
+  </si>
+  <si>
+    <t>Witnessed the hotel staff very rudely throw out a Veteran and his service dog without justification.  Never seen anything like it in my life. No one should receive this treatment. I will NEVER stay at a Holiday Inn again after this distasteful incident.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Witnessed the hotel staff very rudely throw out a Veteran and his service dog without justification.  Never seen anything like it in my life. No one should receive this treatment. I will NEVER stay at a Holiday Inn again after this distasteful incident.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r480928089-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>480928089</t>
+  </si>
+  <si>
+    <t>Disgusting Disrespect For Veterans</t>
+  </si>
+  <si>
+    <t>Kicking out a wounded veteran and his service dog simply because he was receiving too many calls from his fans? Horrendous. It is your employee's job to answer and redirect phone calls, so you failed to do your job and booted out a veteran and his dog.  Can't believe the terrible customer service and unAmerican disrespect for our veterans.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r480765345-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>480765345</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Discrimination Against Veterans</t>
+  </si>
+  <si>
+    <t>This location is horrible. They threw out a disabled veteran and his service dog because he received phone calls on his room phone. They had no guts to tell him to his face but simply deactivated his keycards and informed him at 9pm at night. The literal reason was that he received phone calls - a normal and typical service for any hotel and its patrons.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r449739974-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>449739974</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Better then average stay</t>
+  </si>
+  <si>
+    <t>We had a suite and it was fitting for our family.  Clean- breakfast was better then some others.  Loved that as parents we had our own room to relax in after  long day of travel. The WiFi was ok mine kept dropping the signal.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded January 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2017</t>
+  </si>
+  <si>
+    <t>We had a suite and it was fitting for our family.  Clean- breakfast was better then some others.  Loved that as parents we had our own room to relax in after  long day of travel. The WiFi was ok mine kept dropping the signal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r437615320-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>437615320</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>bbq cookoff weekend</t>
+  </si>
+  <si>
+    <t>Checked in on Friday. Hotel has recently been remodel. We were in room 140. Our bed was almost one foot higher than the nite stands. Very inconvenient to use. Also, the foot stool for the chair was lower than the chair.They had a great breakfast but were out of things both day. The breakfast started at 7am. We were there at 7:35. There were six people there and they were out of pancakes and eggs. Took 15 min. before we had either. Sunday at 8:30 they were out of the ham. When we left 20 minutes later they still did not have any ham.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Checked in on Friday. Hotel has recently been remodel. We were in room 140. Our bed was almost one foot higher than the nite stands. Very inconvenient to use. Also, the foot stool for the chair was lower than the chair.They had a great breakfast but were out of things both day. The breakfast started at 7am. We were there at 7:35. There were six people there and they were out of pancakes and eggs. Took 15 min. before we had either. Sunday at 8:30 they were out of the ham. When we left 20 minutes later they still did not have any ham.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r436226243-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>436226243</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>This is a much better than average Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>I really felt comfortable at this location.  All of the features were either updated or newer.  It had a mini fridge too.  There were just 2 things that need to be improved though.  The shower water pressure was sub-par.  The pressure was so low that it was hard to rinse off completely.  The other suggestion is the desk placement right in front of the A/C unit is not a good idea.  I had quite a bit of work to do the night I stayed and every 10-15 minutes the A/C would blow right on me.  That was not comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>I really felt comfortable at this location.  All of the features were either updated or newer.  It had a mini fridge too.  There were just 2 things that need to be improved though.  The shower water pressure was sub-par.  The pressure was so low that it was hard to rinse off completely.  The other suggestion is the desk placement right in front of the A/C unit is not a good idea.  I had quite a bit of work to do the night I stayed and every 10-15 minutes the A/C would blow right on me.  That was not comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r420420467-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>420420467</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Well managed great value for money hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights in Sep 2016. Despite there being no room service, the room (suite) was excellent and on par comfort wise with a good Intercontinental. The staff were friendly. Check in was friendly and efficient, as was check out. The breakfast was limited but had enough fruit and healthy options to suit me. The internet (free) was excellent and the facilities in the room were superb. If the location suits you as it did me, you would be hard pushed to find anything of this quality at such reasonable prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights in Sep 2016. Despite there being no room service, the room (suite) was excellent and on par comfort wise with a good Intercontinental. The staff were friendly. Check in was friendly and efficient, as was check out. The breakfast was limited but had enough fruit and healthy options to suit me. The internet (free) was excellent and the facilities in the room were superb. If the location suits you as it did me, you would be hard pushed to find anything of this quality at such reasonable prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r393057080-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>393057080</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>I stayed for a night with my daughter and 2 granddaughters. I was a walk in customer. And I was pleased it was a lovely facility. The room was beautiful. The beds were very comfortable. We had a great breakfastMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>I stayed for a night with my daughter and 2 granddaughters. I was a walk in customer. And I was pleased it was a lovely facility. The room was beautiful. The beds were very comfortable. We had a great breakfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r386232985-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>386232985</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>I reached very late one night in April 2016 for a business trip. The receptionist was very courteous even that that time of the night. The room itself was comfortable, although I slept for hardly few hours. The breakfast area does get a bit clammed up in the morning, but I was in a rush, so it was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2016</t>
+  </si>
+  <si>
+    <t>I reached very late one night in April 2016 for a business trip. The receptionist was very courteous even that that time of the night. The room itself was comfortable, although I slept for hardly few hours. The breakfast area does get a bit clammed up in the morning, but I was in a rush, so it was ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r377407269-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>377407269</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saturday, May 28th, 2016 </t>
+  </si>
+  <si>
+    <t>Nightmare from hell! Room moved twice. Informed housekeeper; whom of which could not speak any English...better yet I want the supervisor to call me. Too much to post. Fyi, it says there are no animals allowed, yet the moment I walk in I had to ask Trixie (front desk agent) of their policy. A dog with owner were sitting in the breakfast area waiting to check in. Are you serious. And then that person who was with that group (supp. already checked in) informed the front desk there were 3 other dogs on their floor!!? I'll be awaiting my phone call soon. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Nightmare from hell! Room moved twice. Informed housekeeper; whom of which could not speak any English...better yet I want the supervisor to call me. Too much to post. Fyi, it says there are no animals allowed, yet the moment I walk in I had to ask Trixie (front desk agent) of their policy. A dog with owner were sitting in the breakfast area waiting to check in. Are you serious. And then that person who was with that group (supp. already checked in) informed the front desk there were 3 other dogs on their floor!!? I'll be awaiting my phone call soon. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r374811136-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>374811136</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>School time</t>
+  </si>
+  <si>
+    <t>Great stay - beds are a little too firm for me .updated in the last 2 years. Good area near mall and eating. Salt grass just down the road. Good breakfast . Stayed on the 5th floor and no noise.. We got a suite and I sewed the whole week ?  A Joann's right down the interstate.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2016</t>
+  </si>
+  <si>
+    <t>Great stay - beds are a little too firm for me .updated in the last 2 years. Good area near mall and eating. Salt grass just down the road. Good breakfast . Stayed on the 5th floor and no noise.. We got a suite and I sewed the whole week ?  A Joann's right down the interstate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r374272532-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>374272532</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>reliable</t>
+  </si>
+  <si>
+    <t>This is a go to location for us.  Always a good rest and the fitness room puts other Holiday Inn Express to shame.  The breakfast is the standard fare for a breakfast bar set up.  liked the cookies at arrival.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a go to location for us.  Always a good rest and the fitness room puts other Holiday Inn Express to shame.  The breakfast is the standard fare for a breakfast bar set up.  liked the cookies at arrival.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r349811900-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>349811900</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Bridal Shower</t>
+  </si>
+  <si>
+    <t>Upon arrival we were upgraded to a suite. A nice touch for a gold member. The room was spotless and smelled great. The breakfast was the typical Holiday Inn fare but staff was very friendly. Since we were constantly changing for different functions we ran out of towels. A quick call down and new towels were bought up in record time. I can not say one negative comment about the place. We will be back because it is so close to the Woodlands, where family lives.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Upon arrival we were upgraded to a suite. A nice touch for a gold member. The room was spotless and smelled great. The breakfast was the typical Holiday Inn fare but staff was very friendly. Since we were constantly changing for different functions we ran out of towels. A quick call down and new towels were bought up in record time. I can not say one negative comment about the place. We will be back because it is so close to the Woodlands, where family lives.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r344490116-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>344490116</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Friendly and Hospitable</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn Express for 12 nights recently. I thought the staff were very friendly and considerate of their guests. The hotel is a standard HIEX without the frills of a four star hotel, but it is clean and comfy. I am a bit disappointed that guests are not able to order movies, and no movie channels on the cable programming except HBO. Also, the breakfast in the morning is below average. I think a bit more attention should be paid to quality food. The scrambled eggs seem to be rehydrated powder eggs, and the omelets with American cheese in the middle are not very good at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded February 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn Express for 12 nights recently. I thought the staff were very friendly and considerate of their guests. The hotel is a standard HIEX without the frills of a four star hotel, but it is clean and comfy. I am a bit disappointed that guests are not able to order movies, and no movie channels on the cable programming except HBO. Also, the breakfast in the morning is below average. I think a bit more attention should be paid to quality food. The scrambled eggs seem to be rehydrated powder eggs, and the omelets with American cheese in the middle are not very good at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r342669470-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>342669470</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Nice facility, questionable staff</t>
+  </si>
+  <si>
+    <t>I was in the area visiting family. I booked 2 paid nights and one reward night for a total of 3 nights. Upon check in I was assured that both reservations would be merged and we wouldn't have any problems. The second night we tried to use our room keys to enter a side door and the were not active. I went to the front desk to get new keys. Once again I was assured there would be no problem and my reservations would be merged. The 2nd morning when walking to breakfast the housekeeper asked me when we would be checking out. I had to go to the front desk to make sure we were not locked out of our room. Everything was fixed accordingly but it was frustrating to say the least. In addition to that, we had problems with our television and the night clerk did not answer the phone after calling 5 times nor did he know how to fix the problem or care to. Other than the issues with the desk the facilities were very nice and clean and the breakfast offering was appropriate. I think this facility is a nice place I am hoping that my experience was an isolated fluke. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>I was in the area visiting family. I booked 2 paid nights and one reward night for a total of 3 nights. Upon check in I was assured that both reservations would be merged and we wouldn't have any problems. The second night we tried to use our room keys to enter a side door and the were not active. I went to the front desk to get new keys. Once again I was assured there would be no problem and my reservations would be merged. The 2nd morning when walking to breakfast the housekeeper asked me when we would be checking out. I had to go to the front desk to make sure we were not locked out of our room. Everything was fixed accordingly but it was frustrating to say the least. In addition to that, we had problems with our television and the night clerk did not answer the phone after calling 5 times nor did he know how to fix the problem or care to. Other than the issues with the desk the facilities were very nice and clean and the breakfast offering was appropriate. I think this facility is a nice place I am hoping that my experience was an isolated fluke. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r320248274-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>320248274</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Good on the Inside, Not so good on the outside</t>
+  </si>
+  <si>
+    <t>Overall the hotel was fine.  Interior has been updated and rooms were modern, nice and clean.  Once inside the hotel, all was good.  The drive up is not appealing (location).  It sits on the feeder road to I-45 and there were trailers, cargo containers at back of lot, people hanging out in parking lot at night when we arrived and just didn't feel safe or comfortable parking and walking in.  Lots of road noise, even at midnight when we got to bed.  No road noise when I woke up in middle of night though.Hotel did have ice on every floor by the elevators and that was convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Overall the hotel was fine.  Interior has been updated and rooms were modern, nice and clean.  Once inside the hotel, all was good.  The drive up is not appealing (location).  It sits on the feeder road to I-45 and there were trailers, cargo containers at back of lot, people hanging out in parking lot at night when we arrived and just didn't feel safe or comfortable parking and walking in.  Lots of road noise, even at midnight when we got to bed.  No road noise when I woke up in middle of night though.Hotel did have ice on every floor by the elevators and that was convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r317542874-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>317542874</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Stayed one night because we didn't want to drive back to houston late night after a marriage event. I must say I was satisfied. The beds were comfortable, the breakfast they serve was good. The staff was nice. Definitely will stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r311014573-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>311014573</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>A Good Night's Rest</t>
+  </si>
+  <si>
+    <t>After a long drive my sisters and I were happy to settle in and relax in our suite.  The beds (2 Queen and a pull out sofa) were comfortable, lighting in the room was dark and staff friendly.  The breakfast was full of breads/rolls, cereals, eggs, sausage, biscuits, juice, dairy products, a neat pancake machine, coffee and tea. Lots of parking and good lighting in the parking lot.  There are several restaurants nearby.  The address is fixed in my GPS for our next trip to visit family and friends.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r297059447-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>297059447</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Clean Hotel, Clean, Comfortable Beds</t>
+  </si>
+  <si>
+    <t>The receptionist was very welcoming, courteous and helpful. He found us a great room even without prior reservation. The hotel was clean, the lobby area was attractive, the guest room and bathroom were very clean. I slept like a baby as soon as I laid down, the beds were so comfortable, it was really worth the price. The morning staff were very friendly during checkout, I asked about my IHG rewards and they made sure it was posted to my account. My children also commented about how comfortable the beds were. When I travel back to Houston I will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r295486322-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>295486322</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We were only in The Woodlands for one night.  This was a great location for us.  The beds were great and the pillows were perfect.  The microwave and frig were nice to have for our leftovers from dinner.  The room was very clean and comfortable.  The tub was even clean enough to take a bath in.  The breakfast was delicious.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r291585346-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>291585346</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Poor Customer Service, Rude Front Desk Clerk</t>
+  </si>
+  <si>
+    <t>The first evening of my stay, I discovered there was no hot water in the shower.  I phoned the front desk to report the problem.  The front desk clerk (Joshua) told me that maintenance had already left for the day.  He did offer to move me to a different room.  However, after a long day of travel and due to the fact that I had already unpacked and had food in the mini-fridge, I told Joshua that I would stay in my registered room and just take a shower in the other room.  Joshua informed me that option would not be acceptable because I would be "dirtying up the room making it unavailable to rent out to another guest".  I told Joshua that regardless of whether I moved into the new room or just used the shower in that room, it would be unavailable for another guest.  Joshua was unable or unwilling to see the logic in this statement.  I consequently remained in my registered room and took a cold shower that evening.  Joshua assured me that maintenance would rectify the issue the first thing in the morning.
+When I returned to the hotel the following evening, there still wasn't any hot water in the shower.  I phoned the front desk to inquire whether maintenance had looked into the issue.  The front desk clerk (tall, thin male w/brown wavy hair) told me that the maintenance ticket showed the issue was...The first evening of my stay, I discovered there was no hot water in the shower.  I phoned the front desk to report the problem.  The front desk clerk (Joshua) told me that maintenance had already left for the day.  He did offer to move me to a different room.  However, after a long day of travel and due to the fact that I had already unpacked and had food in the mini-fridge, I told Joshua that I would stay in my registered room and just take a shower in the other room.  Joshua informed me that option would not be acceptable because I would be "dirtying up the room making it unavailable to rent out to another guest".  I told Joshua that regardless of whether I moved into the new room or just used the shower in that room, it would be unavailable for another guest.  Joshua was unable or unwilling to see the logic in this statement.  I consequently remained in my registered room and took a cold shower that evening.  Joshua assured me that maintenance would rectify the issue the first thing in the morning.When I returned to the hotel the following evening, there still wasn't any hot water in the shower.  I phoned the front desk to inquire whether maintenance had looked into the issue.  The front desk clerk (tall, thin male w/brown wavy hair) told me that the maintenance ticket showed the issue was resolved.  He said he would phone the maintenance man and put me on hold.  After being on hold for over ten minutes, I went downstairs to speak to the clerk in person.  The clerk was checking in other guests.  When I  expressed my displeasure for being put on hold forever while he assisted other guests, he rudely responded, "forever?  literally??"  I am a frequent business traveler and this experience was extremely disappointing.  Hotel Management needs to retrain the front desk staff on basic customer service and common courtesy.  Other hotel property issues noted: (1) A/C units need to be checked.  The thermostat has to be turned down to 65 degrees to reach what feels like a temperature of 73 degrees. (2) The mini-fridge units do not include temperature adjustment knobs and do not appear to be functioning properly.  The freezer box of the my fridge unit had a puddle of water at the bottom. (3) The wall mounted hair dryer was installed so high and had such a short cord that I was unable to blowout my hair upside down.PS.  I did not have hot water in the shower until the third and final night of my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded August 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2015</t>
+  </si>
+  <si>
+    <t>The first evening of my stay, I discovered there was no hot water in the shower.  I phoned the front desk to report the problem.  The front desk clerk (Joshua) told me that maintenance had already left for the day.  He did offer to move me to a different room.  However, after a long day of travel and due to the fact that I had already unpacked and had food in the mini-fridge, I told Joshua that I would stay in my registered room and just take a shower in the other room.  Joshua informed me that option would not be acceptable because I would be "dirtying up the room making it unavailable to rent out to another guest".  I told Joshua that regardless of whether I moved into the new room or just used the shower in that room, it would be unavailable for another guest.  Joshua was unable or unwilling to see the logic in this statement.  I consequently remained in my registered room and took a cold shower that evening.  Joshua assured me that maintenance would rectify the issue the first thing in the morning.
+When I returned to the hotel the following evening, there still wasn't any hot water in the shower.  I phoned the front desk to inquire whether maintenance had looked into the issue.  The front desk clerk (tall, thin male w/brown wavy hair) told me that the maintenance ticket showed the issue was...The first evening of my stay, I discovered there was no hot water in the shower.  I phoned the front desk to report the problem.  The front desk clerk (Joshua) told me that maintenance had already left for the day.  He did offer to move me to a different room.  However, after a long day of travel and due to the fact that I had already unpacked and had food in the mini-fridge, I told Joshua that I would stay in my registered room and just take a shower in the other room.  Joshua informed me that option would not be acceptable because I would be "dirtying up the room making it unavailable to rent out to another guest".  I told Joshua that regardless of whether I moved into the new room or just used the shower in that room, it would be unavailable for another guest.  Joshua was unable or unwilling to see the logic in this statement.  I consequently remained in my registered room and took a cold shower that evening.  Joshua assured me that maintenance would rectify the issue the first thing in the morning.When I returned to the hotel the following evening, there still wasn't any hot water in the shower.  I phoned the front desk to inquire whether maintenance had looked into the issue.  The front desk clerk (tall, thin male w/brown wavy hair) told me that the maintenance ticket showed the issue was resolved.  He said he would phone the maintenance man and put me on hold.  After being on hold for over ten minutes, I went downstairs to speak to the clerk in person.  The clerk was checking in other guests.  When I  expressed my displeasure for being put on hold forever while he assisted other guests, he rudely responded, "forever?  literally??"  I am a frequent business traveler and this experience was extremely disappointing.  Hotel Management needs to retrain the front desk staff on basic customer service and common courtesy.  Other hotel property issues noted: (1) A/C units need to be checked.  The thermostat has to be turned down to 65 degrees to reach what feels like a temperature of 73 degrees. (2) The mini-fridge units do not include temperature adjustment knobs and do not appear to be functioning properly.  The freezer box of the my fridge unit had a puddle of water at the bottom. (3) The wall mounted hair dryer was installed so high and had such a short cord that I was unable to blowout my hair upside down.PS.  I did not have hot water in the shower until the third and final night of my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r277117759-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>277117759</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Hasty Construction?</t>
+  </si>
+  <si>
+    <t>It seems that this building was built in a rush. I have never been in a hotel where I could distinctly exactly where the person was above me and hear the toilet lid closing. It was beyond the normal level of noise you would expect from a room above you, and I know the person wasn't above wasn't being loud. There were also some small details about how far away the elevators were from the front desk. They also put the conference rooms in the hallway between the front desk and the elevators, which could cause congestion problems...or the normal comings and goings of guests could be very distracting to those using the conference rooms. The food was on par for a holiday inn express and the breakfast attendant kept the area clean and stocked.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2015</t>
+  </si>
+  <si>
+    <t>It seems that this building was built in a rush. I have never been in a hotel where I could distinctly exactly where the person was above me and hear the toilet lid closing. It was beyond the normal level of noise you would expect from a room above you, and I know the person wasn't above wasn't being loud. There were also some small details about how far away the elevators were from the front desk. They also put the conference rooms in the hallway between the front desk and the elevators, which could cause congestion problems...or the normal comings and goings of guests could be very distracting to those using the conference rooms. The food was on par for a holiday inn express and the breakfast attendant kept the area clean and stocked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r274839942-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>274839942</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Hotel Was Noisy</t>
+  </si>
+  <si>
+    <t>Hotel room was clean and the staff kept the room clean.  The hotel was near the shopping area "Woodlands".  There was road noise from the nearby expressway.  Noise was also noticed from the adjacent rooms and from doors to the hallway closing.  A free breakfast was included in the cost of the room.  The breakfast was good.  items on the breakfast were pancakes, rolls, cereal, eggs, meats, toast, oatmeal, etc.  The exercise room had very limited exercise equipment.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r272843689-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>272843689</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Nothing fancy</t>
+  </si>
+  <si>
+    <t>Located right off I-45 in Spring (south of The Woodlands &amp; north of Houston). The hotel itself is nice enough. Front check-in staff were very inattentive and almost rude and mostly non-existent. The rooms themselves were nice and clean and my stay was very quiet. Breakfast was underwhelming with cold cereal, oatmeal, breads, and a small area with biscuits, gravy, ham and turkey sausage - all of which were cold, rubbery and tasteless. This hotel is not bad, just nothing to brag about.MoreShow less</t>
+  </si>
+  <si>
+    <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Located right off I-45 in Spring (south of The Woodlands &amp; north of Houston). The hotel itself is nice enough. Front check-in staff were very inattentive and almost rude and mostly non-existent. The rooms themselves were nice and clean and my stay was very quiet. Breakfast was underwhelming with cold cereal, oatmeal, breads, and a small area with biscuits, gravy, ham and turkey sausage - all of which were cold, rubbery and tasteless. This hotel is not bad, just nothing to brag about.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r242781447-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>242781447</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel and Good Free Breakfast!</t>
+  </si>
+  <si>
+    <t>My husband and I were in Spring for a friend's wedding. They did a good job choosing this hotelfor the wedding guests! The rooms were spacious and bathrooms large enough for 2 adults to get ready in. The breakfast was also very good for a free continental breakfast! The pancake machine was my favorite, but they also had eggs, sausage, bacon, biscuits, cinnamon rolls, muffins, yogurt, cereal, etc. Something for everybody. The dining room was also a good size so everyone had a table to sit down. The rooms were a little noisy, but overall would definitely recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded January 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I were in Spring for a friend's wedding. They did a good job choosing this hotelfor the wedding guests! The rooms were spacious and bathrooms large enough for 2 adults to get ready in. The breakfast was also very good for a free continental breakfast! The pancake machine was my favorite, but they also had eggs, sausage, bacon, biscuits, cinnamon rolls, muffins, yogurt, cereal, etc. Something for everybody. The dining room was also a good size so everyone had a table to sit down. The rooms were a little noisy, but overall would definitely recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r241019137-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>241019137</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>Perfect place</t>
+  </si>
+  <si>
+    <t>This is a beautifully clean hotel with nice service. We stayed several nights on family business, and each night was comfortable and relaxing. The breakfast is typical of this hotel chain but it's hot and delicious. While there are plenty of places to sit for breakfast, the breakfast counter is in a small square room and can get crowded when there are a lot of people around. Overall it's a great place to stay if you're in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a beautifully clean hotel with nice service. We stayed several nights on family business, and each night was comfortable and relaxing. The breakfast is typical of this hotel chain but it's hot and delicious. While there are plenty of places to sit for breakfast, the breakfast counter is in a small square room and can get crowded when there are a lot of people around. Overall it's a great place to stay if you're in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r239871083-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>239871083</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>Recent renovations, Beautiful Property!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last year and was very impressed with my recent stay! The property has been recently renovated and the new furniture and carpet is wonderful!! The evening and overnight staff were very nice and accommodating! We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last year and was very impressed with my recent stay! The property has been recently renovated and the new furniture and carpet is wonderful!! The evening and overnight staff were very nice and accommodating! We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r233191083-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>233191083</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>In the area for a wedding and picked this place to stay and could not have chosen better. Very clean, very easy to get to, wonderful staff. The breakfast was actually very tasty although I suggest you get there early as the dining area fills fast. My only complaint was the horrific traffic which has nothing to do with the Holiday Inn but was very frustrating. Had two great nights sleep even with the interstate close by. Felt very safe coming in at night which we did. Overall a great place to stay and I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2015</t>
+  </si>
+  <si>
+    <t>In the area for a wedding and picked this place to stay and could not have chosen better. Very clean, very easy to get to, wonderful staff. The breakfast was actually very tasty although I suggest you get there early as the dining area fills fast. My only complaint was the horrific traffic which has nothing to do with the Holiday Inn but was very frustrating. Had two great nights sleep even with the interstate close by. Felt very safe coming in at night which we did. Overall a great place to stay and I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r228848705-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>228848705</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>Pretty nice</t>
+  </si>
+  <si>
+    <t>The hotel was easy to find. check in went smooth. Rooms were clean and no odors. Beds were comfortable. Had a problem getting cold water, turned it on an let it run never got cold water. other than that hotel is worth the money check it out</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r227987887-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>227987887</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>When Gold is more valuable than Platinum....</t>
+  </si>
+  <si>
+    <t>After a 6:00 AM flight to Houston, a long day of meetings and brutal traffic I was looking forward to a pleasant, trouble free check-in and relaxing night at what is a nice HI Express property even though the highway traffic makes it difficult to get to.
+The young lady checking me in was pleasant in welcoming me to the counter but became very flustered when her printer would not cooperate.
+Another young lady came to the counter to help another guest check in and it was a speedy efficient process. She processed him, inquired if he wanted HI points or the welcome package and told him about the evening cocktail hour with wine and beer and thanked him for being a Gold Member.
+The young lady checking me in asked me to sign the paperwork and configured my keys. I stood there for a minute and then asked if she had captured my IHG member number and she said oh, yeah I'll make sure you get the points.
+No offer of a choice between points or water and a snack, no invitation to the Happy Hour, no thank you for being a Gold Member, oh wait I'm a Platinum Member.
+I realize in the grand scheme of things this is a small thing - my room is great, the hotel is clean, well appointed and quiet.
+I'm sure they also are at the Hampton Inn and Hilton Garden Inn...After a 6:00 AM flight to Houston, a long day of meetings and brutal traffic I was looking forward to a pleasant, trouble free check-in and relaxing night at what is a nice HI Express property even though the highway traffic makes it difficult to get to.The young lady checking me in was pleasant in welcoming me to the counter but became very flustered when her printer would not cooperate.Another young lady came to the counter to help another guest check in and it was a speedy efficient process. She processed him, inquired if he wanted HI points or the welcome package and told him about the evening cocktail hour with wine and beer and thanked him for being a Gold Member.The young lady checking me in asked me to sign the paperwork and configured my keys. I stood there for a minute and then asked if she had captured my IHG member number and she said oh, yeah I'll make sure you get the points.No offer of a choice between points or water and a snack, no invitation to the Happy Hour, no thank you for being a Gold Member, oh wait I'm a Platinum Member.I realize in the grand scheme of things this is a small thing - my room is great, the hotel is clean, well appointed and quiet.I'm sure they also are at the Hampton Inn and Hilton Garden Inn that I didn't book a room at, maybe its time to see how much Hilton Honors values loyalty?MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded September 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2014</t>
+  </si>
+  <si>
+    <t>After a 6:00 AM flight to Houston, a long day of meetings and brutal traffic I was looking forward to a pleasant, trouble free check-in and relaxing night at what is a nice HI Express property even though the highway traffic makes it difficult to get to.
+The young lady checking me in was pleasant in welcoming me to the counter but became very flustered when her printer would not cooperate.
+Another young lady came to the counter to help another guest check in and it was a speedy efficient process. She processed him, inquired if he wanted HI points or the welcome package and told him about the evening cocktail hour with wine and beer and thanked him for being a Gold Member.
+The young lady checking me in asked me to sign the paperwork and configured my keys. I stood there for a minute and then asked if she had captured my IHG member number and she said oh, yeah I'll make sure you get the points.
+No offer of a choice between points or water and a snack, no invitation to the Happy Hour, no thank you for being a Gold Member, oh wait I'm a Platinum Member.
+I realize in the grand scheme of things this is a small thing - my room is great, the hotel is clean, well appointed and quiet.
+I'm sure they also are at the Hampton Inn and Hilton Garden Inn...After a 6:00 AM flight to Houston, a long day of meetings and brutal traffic I was looking forward to a pleasant, trouble free check-in and relaxing night at what is a nice HI Express property even though the highway traffic makes it difficult to get to.The young lady checking me in was pleasant in welcoming me to the counter but became very flustered when her printer would not cooperate.Another young lady came to the counter to help another guest check in and it was a speedy efficient process. She processed him, inquired if he wanted HI points or the welcome package and told him about the evening cocktail hour with wine and beer and thanked him for being a Gold Member.The young lady checking me in asked me to sign the paperwork and configured my keys. I stood there for a minute and then asked if she had captured my IHG member number and she said oh, yeah I'll make sure you get the points.No offer of a choice between points or water and a snack, no invitation to the Happy Hour, no thank you for being a Gold Member, oh wait I'm a Platinum Member.I realize in the grand scheme of things this is a small thing - my room is great, the hotel is clean, well appointed and quiet.I'm sure they also are at the Hampton Inn and Hilton Garden Inn that I didn't book a room at, maybe its time to see how much Hilton Honors values loyalty?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r222694775-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>222694775</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>I booked this hotel using priority points, we came here for a new grand baby being born. Our first room the AC didn't work, no problem they moved us to another room where the AC worked great! The room was clean except the tub had hair in it which was gross but not a deal breaker. The walls are thin and the room next door was noisy but it was ok, I've had small kids before. Hotel staff were friendly, overall everything here was great for us and I would stay here again, the location is great also!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r218542437-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>218542437</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Overall..pretty good</t>
+  </si>
+  <si>
+    <t>Only stayed overnight. The only thing that I didn't like was that I arrived late at night and had to park near the back of the lot. Being only myself and my daughter, I didn't really like this..However, it was well lit. This appears to be an older hotel that has been remodeled. Everything was clean. The only other thing was that the a/c unit was a little loud. Other than those things, it was all good. Breakfast was your typical with warm cinammon rolls.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r216939237-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>216939237</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workout room stinks. </t>
+  </si>
+  <si>
+    <t>Love the hotel and the remodel is great but the workout room is absolutely terrible.  Eliptical is so bad I wouldn't even buy it as a cheap home version. The weight set up is a mess. So if u workout stay somewhere else unless u just use hand weights. MoreShow less</t>
+  </si>
+  <si>
+    <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Love the hotel and the remodel is great but the workout room is absolutely terrible.  Eliptical is so bad I wouldn't even buy it as a cheap home version. The weight set up is a mess. So if u workout stay somewhere else unless u just use hand weights. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r210338784-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>210338784</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Nice Make Over</t>
+  </si>
+  <si>
+    <t>We stayed here for one night while driving from Florida to Oklahoma.  The place is clean and updated.  The lobby is lovely and the staff is pleasant and helpful.  The first room we got smelled like a mixture of smoke and cleaning products, so we asked for another room.  The front desk happily complied and the new room was without the odor.  There were ample towels and toiletries.  The bathroom was fresh and clean.  The beds were ok, not great.  We found plenty of pillows.  The tv was nice and there were a lot of channels from which to choose.  No pay movies.  Air conditioning was provided through a window unit, and it was not bad.  For a non luxury hotel, these accommodations were just fine.  I think the room was overpriced, but that may be due to the area.Free wifi and free breakfast are included in the fee.  I must say breakfast, although advertised as a hot breakfast, was not great.  There was the standard hot coffee and juice, but the 'hot' part was comprised of biscuits and gravy and pre prepared 'omelets'.  The fresh fruit was nice.  I saw some cold cereal, toast, and packaged sweet rolls.  The breakfast area, however, was clean and updated.This place served our purpose, as we were able to get some sleep before resuming our drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded June 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for one night while driving from Florida to Oklahoma.  The place is clean and updated.  The lobby is lovely and the staff is pleasant and helpful.  The first room we got smelled like a mixture of smoke and cleaning products, so we asked for another room.  The front desk happily complied and the new room was without the odor.  There were ample towels and toiletries.  The bathroom was fresh and clean.  The beds were ok, not great.  We found plenty of pillows.  The tv was nice and there were a lot of channels from which to choose.  No pay movies.  Air conditioning was provided through a window unit, and it was not bad.  For a non luxury hotel, these accommodations were just fine.  I think the room was overpriced, but that may be due to the area.Free wifi and free breakfast are included in the fee.  I must say breakfast, although advertised as a hot breakfast, was not great.  There was the standard hot coffee and juice, but the 'hot' part was comprised of biscuits and gravy and pre prepared 'omelets'.  The fresh fruit was nice.  I saw some cold cereal, toast, and packaged sweet rolls.  The breakfast area, however, was clean and updated.This place served our purpose, as we were able to get some sleep before resuming our drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r206761332-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>206761332</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Great new look!</t>
+  </si>
+  <si>
+    <t>Attended the grand re-opening of the Holiday Inn and I liked the new look. The outside of the hotel is very unassuming.  Inside there's a large lobby with comfortable seating and a flat screen TV. The hotel is decorated in a lovely seascape decor with brilliant blues and greens. The rooms have been remodeled with new bedding, and include extra seating, a microwave, and a mini fridge. Breakfast is included with your stay and you have to check out the on demand pancake maker!The hotel has a typical sized business center, small pool, sauna, fitness center, and coin operated laundry. There is even a Toyota car rental office on site. The banquet rooms are decent sized and bringing in your own outside catering is allowed. The location itself is near lots of stores and restaurants and close to the Woodlands Mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Susan R, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Attended the grand re-opening of the Holiday Inn and I liked the new look. The outside of the hotel is very unassuming.  Inside there's a large lobby with comfortable seating and a flat screen TV. The hotel is decorated in a lovely seascape decor with brilliant blues and greens. The rooms have been remodeled with new bedding, and include extra seating, a microwave, and a mini fridge. Breakfast is included with your stay and you have to check out the on demand pancake maker!The hotel has a typical sized business center, small pool, sauna, fitness center, and coin operated laundry. There is even a Toyota car rental office on site. The banquet rooms are decent sized and bringing in your own outside catering is allowed. The location itself is near lots of stores and restaurants and close to the Woodlands Mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r192615123-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>192615123</t>
+  </si>
+  <si>
+    <t>01/30/2014</t>
+  </si>
+  <si>
+    <t>A reno well done!</t>
+  </si>
+  <si>
+    <t>The place is in the final stages of a total renovation, but the remodeled rooms are very nice!  They have a clean, modern look, but still remain very comfortable.  One of my pet peeves about hotels is the lack of lighting.  Not in this place.  Even though they're using CFL's, the shades don't suck up the light.They've set up the bathrooms with a nice wide vanity that's big enough for the toiletries of two people.   At least in the room where we were staying there's a walk-in shower with plenty of pressure and hot water.My only squawk is there are no towel bars outside the shower area to hangup hand towels.  This seems to be a trend with HIE in general and it's not a plus with me.The front desk staff is very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Susan R, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2014</t>
+  </si>
+  <si>
+    <t>The place is in the final stages of a total renovation, but the remodeled rooms are very nice!  They have a clean, modern look, but still remain very comfortable.  One of my pet peeves about hotels is the lack of lighting.  Not in this place.  Even though they're using CFL's, the shades don't suck up the light.They've set up the bathrooms with a nice wide vanity that's big enough for the toiletries of two people.   At least in the room where we were staying there's a walk-in shower with plenty of pressure and hot water.My only squawk is there are no towel bars outside the shower area to hangup hand towels.  This seems to be a trend with HIE in general and it's not a plus with me.The front desk staff is very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r186991698-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>186991698</t>
+  </si>
+  <si>
+    <t>12/07/2013</t>
+  </si>
+  <si>
+    <t>Amazing Stay in Woodlands</t>
+  </si>
+  <si>
+    <t>Five nights stay for business. Check in was quick, and as a (formerly known as) Priority Club member, received a gift bag of a bottle of water, Chex mix, and chocolate chip cookies. Nice touch, and the water was needed in the hot weather. Nice staff. Lots of conference rooms, but finding the elevator and room was easy. Breakfast was the generic Holiday Inn, and good. Rooms are perpendicular to I-45, but noise wasn't bad. It's on a one way frontage road from I-45, and easy to get to it. would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Susan R, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded January 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2014</t>
+  </si>
+  <si>
+    <t>Five nights stay for business. Check in was quick, and as a (formerly known as) Priority Club member, received a gift bag of a bottle of water, Chex mix, and chocolate chip cookies. Nice touch, and the water was needed in the hot weather. Nice staff. Lots of conference rooms, but finding the elevator and room was easy. Breakfast was the generic Holiday Inn, and good. Rooms are perpendicular to I-45, but noise wasn't bad. It's on a one way frontage road from I-45, and easy to get to it. would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r184359939-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>184359939</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>Two night stay for business. Check in was quick, and as a (formerly known as) Priority Club member, received a gift bag of a bottle of water, Chex mix, and chocolate chip cookies. Nice touch, and the water was needed in the hot weather. Nice staff.  Lots of conference rooms, but finding the elevator and room was easy. Breakfast was the generic Holiday Inn, and good. Rooms are perpendicular to  I-45, but noise wasn't bad. It's on a one way frontage road from I-45, and easy to get to, but have to jump thru hoops to get out, as it is a very busy frontage road.  If in the area again, would stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Two night stay for business. Check in was quick, and as a (formerly known as) Priority Club member, received a gift bag of a bottle of water, Chex mix, and chocolate chip cookies. Nice touch, and the water was needed in the hot weather. Nice staff.  Lots of conference rooms, but finding the elevator and room was easy. Breakfast was the generic Holiday Inn, and good. Rooms are perpendicular to  I-45, but noise wasn't bad. It's on a one way frontage road from I-45, and easy to get to, but have to jump thru hoops to get out, as it is a very busy frontage road.  If in the area again, would stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r181435661-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>181435661</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great &amp; convenient. </t>
+  </si>
+  <si>
+    <t>Me &amp; a friend stayed here because it because it was very close The Woodlands area in which we were attending a concert. Also I have to thank the staff for being very nice. My friend had even accidentally lost her computer battery as we were leaving and the staff already had it when we called to check to see if it had been left there.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>SGraysonHIEW, Sales Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2013</t>
+  </si>
+  <si>
+    <t>Me &amp; a friend stayed here because it because it was very close The Woodlands area in which we were attending a concert. Also I have to thank the staff for being very nice. My friend had even accidentally lost her computer battery as we were leaving and the staff already had it when we called to check to see if it had been left there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r164236459-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>164236459</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>If I wasn't so tired from driving on my road trip, I'd stay somewhere else.</t>
+  </si>
+  <si>
+    <t>The bathroom floor is so filthy, you can slide across it. The carpet is stained and dirty. The beds are clean and comfortable, but the room and bathroom smell like a$$ and filth. It's a subtle, rank smell that gradually sets in after you've settled in. I'll be moving to another room today because in afraid to shower in this room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Susan R, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded June 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2013</t>
+  </si>
+  <si>
+    <t>The bathroom floor is so filthy, you can slide across it. The carpet is stained and dirty. The beds are clean and comfortable, but the room and bathroom smell like a$$ and filth. It's a subtle, rank smell that gradually sets in after you've settled in. I'll be moving to another room today because in afraid to shower in this room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r163076335-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>163076335</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>Stay away...baaaaad</t>
+  </si>
+  <si>
+    <t>Terrible staff, rude, condescending.  I travel a lot, and am used to occasional grouchy staff, but these guys are beyond anything I have experienced, top to bottom.  Worn carpets, smell of urine in the halls.  Room itself wan't too bad, "Breakfast" buffet was inedible. Go somewhere else.  Anywhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Terrible staff, rude, condescending.  I travel a lot, and am used to occasional grouchy staff, but these guys are beyond anything I have experienced, top to bottom.  Worn carpets, smell of urine in the halls.  Room itself wan't too bad, "Breakfast" buffet was inedible. Go somewhere else.  Anywhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r159494704-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>159494704</t>
+  </si>
+  <si>
+    <t>05/02/2013</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>The beds at this location are very comfortable.  It was very quiet and we slept well.  Love the goodie bags given to Priority Club members. We did not eat breakfast at the hotel so I cannot comment on that.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>SGraysonHIEW, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2013</t>
+  </si>
+  <si>
+    <t>The beds at this location are very comfortable.  It was very quiet and we slept well.  Love the goodie bags given to Priority Club members. We did not eat breakfast at the hotel so I cannot comment on that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r146173810-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>146173810</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!!!</t>
+  </si>
+  <si>
+    <t>First time traveling with a pet and looking for a pet friendly hotel.  I expected a musty dog odor for a pet friendly hotel, but none the sort!  The lobby was clean and spacious.  My room was a king on the second floor.  For the $99 rate, the room was also clean and spacious, with no pet odors.  The bed was comfy and clean and the television had adequate cable with three HBO movie channels.  The micorwave, small fridge, mod-type love seat and table were nice unexpected touches.  Not much by way of window scenery as its only a three story hotel off I-45.  I like my room very cold and had a challenge chilling the room immediately, but on occasion, it did get cold.  After a period, the "auto fan on" would turn off and I'd feel heated again.  This was frustrating.  I would encourage the property to install a trash can/pet "poop bag" station on the grassy area to encourage pet owners to pick up after their pets.  All in all no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>First time traveling with a pet and looking for a pet friendly hotel.  I expected a musty dog odor for a pet friendly hotel, but none the sort!  The lobby was clean and spacious.  My room was a king on the second floor.  For the $99 rate, the room was also clean and spacious, with no pet odors.  The bed was comfy and clean and the television had adequate cable with three HBO movie channels.  The micorwave, small fridge, mod-type love seat and table were nice unexpected touches.  Not much by way of window scenery as its only a three story hotel off I-45.  I like my room very cold and had a challenge chilling the room immediately, but on occasion, it did get cold.  After a period, the "auto fan on" would turn off and I'd feel heated again.  This was frustrating.  I would encourage the property to install a trash can/pet "poop bag" station on the grassy area to encourage pet owners to pick up after their pets.  All in all no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r144774165-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>144774165</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>Worst stay at hotel</t>
+  </si>
+  <si>
+    <t>Room had a muskee smell.  Spoke to front desk and was told no rooms available with two beds, but they had a spray for the room.  Hotel attendant brought spray to door and handed to me the spray and said spray where you want without coming into room.  This did not help with the muskee smell.  Around midnight crawled into bed and realized there was a huge wet (pee) spot in the bed. Gross!  Assume bedding never changed.  Hotel had only one night attendant at this time, so no help available.  I offered to change matress and bedding myself, but was told no spare mattress or bedding available.  At this point was offered king size bed with roll out which did not fit my needs.  Suddenly two queen beds became available which were not available on first complaint about muskee smell.  In this room the air conition fan would not stay on all the time even though equipped.  Consistent banging noise from an unidentified source occurred all night resulting in very little sleep.  Room was compensated, and should have been, but felt no one at the hotel had any authority or was in charge.  Had friends also staying at the hotel during this time, and their room had the strongest flowering smell I have ever encountered.  We were wandering what this stong flower smell  was covering up.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded November 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2012</t>
+  </si>
+  <si>
+    <t>Room had a muskee smell.  Spoke to front desk and was told no rooms available with two beds, but they had a spray for the room.  Hotel attendant brought spray to door and handed to me the spray and said spray where you want without coming into room.  This did not help with the muskee smell.  Around midnight crawled into bed and realized there was a huge wet (pee) spot in the bed. Gross!  Assume bedding never changed.  Hotel had only one night attendant at this time, so no help available.  I offered to change matress and bedding myself, but was told no spare mattress or bedding available.  At this point was offered king size bed with roll out which did not fit my needs.  Suddenly two queen beds became available which were not available on first complaint about muskee smell.  In this room the air conition fan would not stay on all the time even though equipped.  Consistent banging noise from an unidentified source occurred all night resulting in very little sleep.  Room was compensated, and should have been, but felt no one at the hotel had any authority or was in charge.  Had friends also staying at the hotel during this time, and their room had the strongest flowering smell I have ever encountered.  We were wandering what this stong flower smell  was covering up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r144613790-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>144613790</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Traffic is nuts, but the hotel is nice!</t>
+  </si>
+  <si>
+    <t>If you come in off the highway at rushhour, be ready!  And if you leave at rushhour, be ready!  Hotel is nice, pool is outdoors.  Didn't get a chance to see the workout area on this trip.  Staff is friendly and received my Priority Club reward sack.Breakfast looked to be good, but I didn't have enough time to stay and try.Would recommend to anyone needing a nice place to stay in the area.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r125552462-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>125552462</t>
+  </si>
+  <si>
+    <t>03/03/2012</t>
+  </si>
+  <si>
+    <t>I guess I am grumpy from the three hours of sleep I got last night...</t>
+  </si>
+  <si>
+    <t>First let me say the staff was very friendly and I got a full refund.  We were in room 145, the walls are paper thin and so are the ceilings. Someone stomped around above us until 3am and then started up again at 6 am.  The people next door to us came in at 12  and proceeded to have a huge fight complete with screaming and crying. I tried to call  the front desk several times and no one answered.  This morning they were very apologetic and did  give us a refund. My suggestion would be to request a top floor room. The hotel is very clean, nicely decorated and beds were adequate.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, ihgcare at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded March 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2012</t>
+  </si>
+  <si>
+    <t>First let me say the staff was very friendly and I got a full refund.  We were in room 145, the walls are paper thin and so are the ceilings. Someone stomped around above us until 3am and then started up again at 6 am.  The people next door to us came in at 12  and proceeded to have a huge fight complete with screaming and crying. I tried to call  the front desk several times and no one answered.  This morning they were very apologetic and did  give us a refund. My suggestion would be to request a top floor room. The hotel is very clean, nicely decorated and beds were adequate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r125319590-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>125319590</t>
+  </si>
+  <si>
+    <t>02/27/2012</t>
+  </si>
+  <si>
+    <t>I would stay there again</t>
+  </si>
+  <si>
+    <t>I recently spent 4 nights at this hotel and over-all was pleased.    It was clean and the breakfast was average.  Bed were comfortable.   The hotel is located immediately off of I-45 and when outside it was very noisy - pool and hot tub also right next to the intersate.  However, our room (203) was also right next to the interstate and I will say it was quiet.  The AC was noisy when it cycled off, but that was tolerable.  Of note, each morning we could hear people walking around above us.   But thankfully this did not happen in the middle of the night.   The lobby is very nice and spacious.   And parking is ample.   The hotel is difficult to find the first time as the address is I-45.   But you have to go 1.5 blocks north of I-45 and wind around and come into the hotel from behind.   I don't know that anything can be done about this but I thought it was worth mentioning.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I recently spent 4 nights at this hotel and over-all was pleased.    It was clean and the breakfast was average.  Bed were comfortable.   The hotel is located immediately off of I-45 and when outside it was very noisy - pool and hot tub also right next to the intersate.  However, our room (203) was also right next to the interstate and I will say it was quiet.  The AC was noisy when it cycled off, but that was tolerable.  Of note, each morning we could hear people walking around above us.   But thankfully this did not happen in the middle of the night.   The lobby is very nice and spacious.   And parking is ample.   The hotel is difficult to find the first time as the address is I-45.   But you have to go 1.5 blocks north of I-45 and wind around and come into the hotel from behind.   I don't know that anything can be done about this but I thought it was worth mentioning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r120836583-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>120836583</t>
+  </si>
+  <si>
+    <t>11/20/2011</t>
+  </si>
+  <si>
+    <t>A nice suprise</t>
+  </si>
+  <si>
+    <t>After having a recent bad experience in a HIE in Texas, we were extremely pleased with the friendly reception staff who were also exceptionally helpful in trying to provide us with a quiet room in what is not a quiet area.  Although we could still hear the busy Interstate from our room, they had put us as far away from the road as they could.  Please note though if you want to sleep during the day, don’t get the room next to the housekeeping room, you won’t get much sleep once the laundry starts, the washing machine (I am assuming that was the cause) shakes the bedside lamp and table and the vibration can be felt through the floor.
+Good sized bathroom and bath towels.  The bed was extremely comfortable although the pillows could do with renewing, they were quite lumpy. There is a fridge and microwave in the room and a good sized work desk, really good facilities.  The hotel does provide room service via delivery service from local restaurants I believe.  We found the booklet advertising this after we had walked around the block trying to find somewhere to eat and had eventually ordered a Chinese meal to be delivered to our room.   We would have ordered an Italian meal via the hotel had we known.
+Breakfast typical HIE.  Cheese omelettes and bacon, these were in the same heated cabinet so the omelettes tasted like smoked bacon, OK...After having a recent bad experience in a HIE in Texas, we were extremely pleased with the friendly reception staff who were also exceptionally helpful in trying to provide us with a quiet room in what is not a quiet area.  Although we could still hear the busy Interstate from our room, they had put us as far away from the road as they could.  Please note though if you want to sleep during the day, don’t get the room next to the housekeeping room, you won’t get much sleep once the laundry starts, the washing machine (I am assuming that was the cause) shakes the bedside lamp and table and the vibration can be felt through the floor.Good sized bathroom and bath towels.  The bed was extremely comfortable although the pillows could do with renewing, they were quite lumpy. There is a fridge and microwave in the room and a good sized work desk, really good facilities.  The hotel does provide room service via delivery service from local restaurants I believe.  We found the booklet advertising this after we had walked around the block trying to find somewhere to eat and had eventually ordered a Chinese meal to be delivered to our room.   We would have ordered an Italian meal via the hotel had we known.Breakfast typical HIE.  Cheese omelettes and bacon, these were in the same heated cabinet so the omelettes tasted like smoked bacon, OK if you like meat, no good for vegetarians.  There was a good selection of cereals, breads, muffins etc.  Coffee and juice was OK as well. There is an outside pool and hot tub, we did not try this as the weather was not suitable, but I would imagine the noise from the road would force you away fairly soon.We got a taxi booked by the hotel to the local mall and river way restaurant area.  Beware of this particular taxi company, the driver charged us $23 for the 3 mile trip; we got a different company back for $10.There are a couple of computers and a printer in the business centre, very handy, we printed off our boarding passes for our next days flights.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>After having a recent bad experience in a HIE in Texas, we were extremely pleased with the friendly reception staff who were also exceptionally helpful in trying to provide us with a quiet room in what is not a quiet area.  Although we could still hear the busy Interstate from our room, they had put us as far away from the road as they could.  Please note though if you want to sleep during the day, don’t get the room next to the housekeeping room, you won’t get much sleep once the laundry starts, the washing machine (I am assuming that was the cause) shakes the bedside lamp and table and the vibration can be felt through the floor.
+Good sized bathroom and bath towels.  The bed was extremely comfortable although the pillows could do with renewing, they were quite lumpy. There is a fridge and microwave in the room and a good sized work desk, really good facilities.  The hotel does provide room service via delivery service from local restaurants I believe.  We found the booklet advertising this after we had walked around the block trying to find somewhere to eat and had eventually ordered a Chinese meal to be delivered to our room.   We would have ordered an Italian meal via the hotel had we known.
+Breakfast typical HIE.  Cheese omelettes and bacon, these were in the same heated cabinet so the omelettes tasted like smoked bacon, OK...After having a recent bad experience in a HIE in Texas, we were extremely pleased with the friendly reception staff who were also exceptionally helpful in trying to provide us with a quiet room in what is not a quiet area.  Although we could still hear the busy Interstate from our room, they had put us as far away from the road as they could.  Please note though if you want to sleep during the day, don’t get the room next to the housekeeping room, you won’t get much sleep once the laundry starts, the washing machine (I am assuming that was the cause) shakes the bedside lamp and table and the vibration can be felt through the floor.Good sized bathroom and bath towels.  The bed was extremely comfortable although the pillows could do with renewing, they were quite lumpy. There is a fridge and microwave in the room and a good sized work desk, really good facilities.  The hotel does provide room service via delivery service from local restaurants I believe.  We found the booklet advertising this after we had walked around the block trying to find somewhere to eat and had eventually ordered a Chinese meal to be delivered to our room.   We would have ordered an Italian meal via the hotel had we known.Breakfast typical HIE.  Cheese omelettes and bacon, these were in the same heated cabinet so the omelettes tasted like smoked bacon, OK if you like meat, no good for vegetarians.  There was a good selection of cereals, breads, muffins etc.  Coffee and juice was OK as well. There is an outside pool and hot tub, we did not try this as the weather was not suitable, but I would imagine the noise from the road would force you away fairly soon.We got a taxi booked by the hotel to the local mall and river way restaurant area.  Beware of this particular taxi company, the driver charged us $23 for the 3 mile trip; we got a different company back for $10.There are a couple of computers and a printer in the business centre, very handy, we printed off our boarding passes for our next days flights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r119185936-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>119185936</t>
+  </si>
+  <si>
+    <t>10/11/2011</t>
+  </si>
+  <si>
+    <t>Great People</t>
+  </si>
+  <si>
+    <t>I spent a night here on Business last week, the rooms were clean and the people were friendly. You can't ask for much more than that. It is refreshing to stay in a place where you don't have to worry about what 'that stuff is' on the floors, tub or beds. Great place to stay.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r117255277-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>117255277</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>We arrived late and were told that there was an outside entrance from the parking lot about halfway to the back that would be convenient for us. We got to the outside entrance only to find that the lock on the door was busted and therefore the inside hallways were unsecured. (Desk was advised about it. We were women traveling without men. ) We arrived in our room (Room 142) and on first flush found that the commode was stopped up.  We suggested moving to another room as we were tired and didn't want to fool with someone there fooling with a commode till God know when! We moved to another room.(Room 128)The beds sagged and were too soft for 2 adults to sleep on without making a conscious effort all night to keep from rolling into one another! The rooms and hallways were too warm to be comfortable and they reeked of cologne or deodorizer. Boiled eggs tasted weird and the orange juice tasted sour.(threw both out) Coffee ran out at breakfast bar at 9:50AM and was not refilled.(breakfast bar closed at 9:30) Food that should have been cold was lukewarm and food that should have been hot was cold. They gave us a 50% adjustment and we left after one night. Will never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Susan R, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded September 23, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2011</t>
+  </si>
+  <si>
+    <t>We arrived late and were told that there was an outside entrance from the parking lot about halfway to the back that would be convenient for us. We got to the outside entrance only to find that the lock on the door was busted and therefore the inside hallways were unsecured. (Desk was advised about it. We were women traveling without men. ) We arrived in our room (Room 142) and on first flush found that the commode was stopped up.  We suggested moving to another room as we were tired and didn't want to fool with someone there fooling with a commode till God know when! We moved to another room.(Room 128)The beds sagged and were too soft for 2 adults to sleep on without making a conscious effort all night to keep from rolling into one another! The rooms and hallways were too warm to be comfortable and they reeked of cologne or deodorizer. Boiled eggs tasted weird and the orange juice tasted sour.(threw both out) Coffee ran out at breakfast bar at 9:50AM and was not refilled.(breakfast bar closed at 9:30) Food that should have been cold was lukewarm and food that should have been hot was cold. They gave us a 50% adjustment and we left after one night. Will never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r115622835-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>115622835</t>
+  </si>
+  <si>
+    <t>07/21/2011</t>
+  </si>
+  <si>
+    <t>Nice hotel.. Were rennovating during stay</t>
+  </si>
+  <si>
+    <t>I stayed here for business for 3 weeks.  The room was antiquated. But after being there for a little while they moved me to a newly rennovated room so that progress could continue on the rest of the hotel.  Very nice after rennovations.  There are tons of places to eat and lots of things to do here.  Located right off of I-45 makes it easily found.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r84323004-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>84323004</t>
+  </si>
+  <si>
+    <t>10/21/2010</t>
+  </si>
+  <si>
+    <t>STANDARD HOLIDAY INN</t>
+  </si>
+  <si>
+    <t>Clean, spacious room, microwave and refrig.  Outdoor pool too cold to swim in; hot tub exceeded recommended temps; steam room and sauna didn't seem to be working.Breakfast standard fare.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r31352212-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>31352212</t>
+  </si>
+  <si>
+    <t>06/01/2009</t>
+  </si>
+  <si>
+    <t>Good All Around</t>
+  </si>
+  <si>
+    <t>This was my first stay at an HIE hotel, and I was pretty happy all around with it.  The hotel is situated right on I-45, close to the mall, and the Woodlands Pavillion so there is plenty close by.  Check in was quick and efficient, although the young guy behind the counter while wasn't rude, didn't seem like he wanted to be there.  The room was nice although not as big as it seemed online was clean and comfortable.  The bed was very plush, with pillows labled as firm or soft.  The couch in the suite was comfy, but some of the furnature looked beat up, and the chair seemed a little on the dingy side.  The fridge and coffee maker area was decent, and the shower was very nice, with great temperature and easy access.  TV channel looked great on the plastic stand-up guide near the bed, but only about half of the channels listed are available, and many are spanish only.  The rooms were pretty quiet, but road noise can be noticed in the room, and some mainenance was being done outside so loud banging was our alarm clock monday morning.  The buffet breakfast had several options and was pretty good.  (not gormet, but filling nonetheless)  Checkout went a little better than check in, but was still fast and efficient.  Overall this is a great place to catch some z's and I would be ok with staying here...This was my first stay at an HIE hotel, and I was pretty happy all around with it.  The hotel is situated right on I-45, close to the mall, and the Woodlands Pavillion so there is plenty close by.  Check in was quick and efficient, although the young guy behind the counter while wasn't rude, didn't seem like he wanted to be there.  The room was nice although not as big as it seemed online was clean and comfortable.  The bed was very plush, with pillows labled as firm or soft.  The couch in the suite was comfy, but some of the furnature looked beat up, and the chair seemed a little on the dingy side.  The fridge and coffee maker area was decent, and the shower was very nice, with great temperature and easy access.  TV channel looked great on the plastic stand-up guide near the bed, but only about half of the channels listed are available, and many are spanish only.  The rooms were pretty quiet, but road noise can be noticed in the room, and some mainenance was being done outside so loud banging was our alarm clock monday morning.  The buffet breakfast had several options and was pretty good.  (not gormet, but filling nonetheless)  Checkout went a little better than check in, but was still fast and efficient.  Overall this is a great place to catch some z's and I would be ok with staying here again.  Nothing fancy, but it gets the job done.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>This was my first stay at an HIE hotel, and I was pretty happy all around with it.  The hotel is situated right on I-45, close to the mall, and the Woodlands Pavillion so there is plenty close by.  Check in was quick and efficient, although the young guy behind the counter while wasn't rude, didn't seem like he wanted to be there.  The room was nice although not as big as it seemed online was clean and comfortable.  The bed was very plush, with pillows labled as firm or soft.  The couch in the suite was comfy, but some of the furnature looked beat up, and the chair seemed a little on the dingy side.  The fridge and coffee maker area was decent, and the shower was very nice, with great temperature and easy access.  TV channel looked great on the plastic stand-up guide near the bed, but only about half of the channels listed are available, and many are spanish only.  The rooms were pretty quiet, but road noise can be noticed in the room, and some mainenance was being done outside so loud banging was our alarm clock monday morning.  The buffet breakfast had several options and was pretty good.  (not gormet, but filling nonetheless)  Checkout went a little better than check in, but was still fast and efficient.  Overall this is a great place to catch some z's and I would be ok with staying here...This was my first stay at an HIE hotel, and I was pretty happy all around with it.  The hotel is situated right on I-45, close to the mall, and the Woodlands Pavillion so there is plenty close by.  Check in was quick and efficient, although the young guy behind the counter while wasn't rude, didn't seem like he wanted to be there.  The room was nice although not as big as it seemed online was clean and comfortable.  The bed was very plush, with pillows labled as firm or soft.  The couch in the suite was comfy, but some of the furnature looked beat up, and the chair seemed a little on the dingy side.  The fridge and coffee maker area was decent, and the shower was very nice, with great temperature and easy access.  TV channel looked great on the plastic stand-up guide near the bed, but only about half of the channels listed are available, and many are spanish only.  The rooms were pretty quiet, but road noise can be noticed in the room, and some mainenance was being done outside so loud banging was our alarm clock monday morning.  The buffet breakfast had several options and was pretty good.  (not gormet, but filling nonetheless)  Checkout went a little better than check in, but was still fast and efficient.  Overall this is a great place to catch some z's and I would be ok with staying here again.  Nothing fancy, but it gets the job done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r29033094-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>29033094</t>
+  </si>
+  <si>
+    <t>04/29/2009</t>
+  </si>
+  <si>
+    <t>Average facilities, No issues</t>
+  </si>
+  <si>
+    <t>This hotel has a pool which is nice. The rooms were decent and the free breakfast was ok. Recommended as a temporary stay in the city.</t>
+  </si>
+  <si>
+    <t>May 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r15106175-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>15106175</t>
+  </si>
+  <si>
+    <t>04/17/2008</t>
+  </si>
+  <si>
+    <t>Paper Thin Walls</t>
+  </si>
+  <si>
+    <t>While the room was clean, I found the mattresses in my room (144) worn and thin.  The beds are low to the ground.  The wireless internet did not work (I was able to pick up the wireless from the La Quinta next door, however, which worked great).  The biggest problem with this hotel is the paper thin walls.  I could hear everything anyone said in the rooms on both sides of me; I was awoken several times by the footsteps of the people above me.  All the doors slam and when people in the hall leave or enter their rooms, the whole building seems to shake.  I didn't notice noise from the interstate, but I was bothered numerous times by the conversations (in reasonable tones) from people standing outside my room in the parking lot.  My stay was booked here only because nothing else was available.  I will drive further into Houston next time, if need be, when staying in the Woodlands area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>While the room was clean, I found the mattresses in my room (144) worn and thin.  The beds are low to the ground.  The wireless internet did not work (I was able to pick up the wireless from the La Quinta next door, however, which worked great).  The biggest problem with this hotel is the paper thin walls.  I could hear everything anyone said in the rooms on both sides of me; I was awoken several times by the footsteps of the people above me.  All the doors slam and when people in the hall leave or enter their rooms, the whole building seems to shake.  I didn't notice noise from the interstate, but I was bothered numerous times by the conversations (in reasonable tones) from people standing outside my room in the parking lot.  My stay was booked here only because nothing else was available.  I will drive further into Houston next time, if need be, when staying in the Woodlands area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r12277769-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>12277769</t>
+  </si>
+  <si>
+    <t>01/02/2008</t>
+  </si>
+  <si>
+    <t>Just...Okay...</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn Express for a business trip.  The continental breakfast was one of the better breakfasts I have experienced on the road.  The rooms were nice, clean and fairly quiet.  (I did have a random person try to get into my room and as a young female in an unfamilar place, that was a little scary!!)  I also experienced some issues with the high speed internet but I was able to work around it for a few hours until it was back up.  They don't offer room service but they do have a service to order from a third party, which is delivered to the room.  The soggy chicken nuggets, watery salad and the wrong soda arrived at my door in a reasonable amount of time but it pained me to have to pay $22 for it.  If you are arriving late, pick up dinner on your way in!!  If you are going to be local to the hotel, getting around the area can be frustrating if you're not familar.  Overall it wasn't bad--I did appreciate the fitness facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn Express for a business trip.  The continental breakfast was one of the better breakfasts I have experienced on the road.  The rooms were nice, clean and fairly quiet.  (I did have a random person try to get into my room and as a young female in an unfamilar place, that was a little scary!!)  I also experienced some issues with the high speed internet but I was able to work around it for a few hours until it was back up.  They don't offer room service but they do have a service to order from a third party, which is delivered to the room.  The soggy chicken nuggets, watery salad and the wrong soda arrived at my door in a reasonable amount of time but it pained me to have to pay $22 for it.  If you are arriving late, pick up dinner on your way in!!  If you are going to be local to the hotel, getting around the area can be frustrating if you're not familar.  Overall it wasn't bad--I did appreciate the fitness facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r7753582-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>7753582</t>
+  </si>
+  <si>
+    <t>06/03/2007</t>
+  </si>
+  <si>
+    <t>Nice for a good nights rest</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for New Years Eve.  A friend of ours lives in Texas and this hotel was conveniently located between the airport and where he lived.  Its off of the 45 but dont let that concern you as there isnt as much noise as you would expect.The room was clean and comfortable.  The bed was comfy as well.  The staff was friendly.Would recommend.</t>
+  </si>
+  <si>
+    <t>December 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2077,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2109,4323 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>118</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>82</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>168</v>
+      </c>
+      <c r="X16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>176</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>177</v>
+      </c>
+      <c r="X17" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>195</v>
+      </c>
+      <c r="X19" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>203</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>204</v>
+      </c>
+      <c r="X20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s">
+        <v>211</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>212</v>
+      </c>
+      <c r="X21" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>244</v>
+      </c>
+      <c r="X25" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>253</v>
+      </c>
+      <c r="X26" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
+        <v>260</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
+      <c r="O27" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>272</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>284</v>
+      </c>
+      <c r="X31" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>290</v>
+      </c>
+      <c r="L32" t="s">
+        <v>291</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>292</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>293</v>
+      </c>
+      <c r="X32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" t="s">
+        <v>299</v>
+      </c>
+      <c r="L33" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>292</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>292</v>
+      </c>
+      <c r="O34" t="s">
+        <v>132</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>306</v>
+      </c>
+      <c r="X34" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s">
+        <v>313</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>314</v>
+      </c>
+      <c r="O35" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>315</v>
+      </c>
+      <c r="X35" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>314</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>315</v>
+      </c>
+      <c r="X36" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>325</v>
+      </c>
+      <c r="J37" t="s">
+        <v>326</v>
+      </c>
+      <c r="K37" t="s">
+        <v>327</v>
+      </c>
+      <c r="L37" t="s">
+        <v>328</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>315</v>
+      </c>
+      <c r="X37" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>331</v>
+      </c>
+      <c r="J38" t="s">
+        <v>332</v>
+      </c>
+      <c r="K38" t="s">
+        <v>333</v>
+      </c>
+      <c r="L38" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>335</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>336</v>
+      </c>
+      <c r="X38" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>340</v>
+      </c>
+      <c r="J39" t="s">
+        <v>341</v>
+      </c>
+      <c r="K39" t="s">
+        <v>342</v>
+      </c>
+      <c r="L39" t="s">
+        <v>343</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>344</v>
+      </c>
+      <c r="O39" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>345</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>346</v>
+      </c>
+      <c r="J40" t="s">
+        <v>347</v>
+      </c>
+      <c r="K40" t="s">
+        <v>348</v>
+      </c>
+      <c r="L40" t="s">
+        <v>349</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>344</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>350</v>
+      </c>
+      <c r="X40" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>353</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" t="s">
+        <v>355</v>
+      </c>
+      <c r="K41" t="s">
+        <v>356</v>
+      </c>
+      <c r="L41" t="s">
+        <v>357</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>358</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>359</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>360</v>
+      </c>
+      <c r="J42" t="s">
+        <v>361</v>
+      </c>
+      <c r="K42" t="s">
+        <v>362</v>
+      </c>
+      <c r="L42" t="s">
+        <v>363</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>364</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>365</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>366</v>
+      </c>
+      <c r="J43" t="s">
+        <v>367</v>
+      </c>
+      <c r="K43" t="s">
+        <v>368</v>
+      </c>
+      <c r="L43" t="s">
+        <v>369</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>370</v>
+      </c>
+      <c r="X43" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>374</v>
+      </c>
+      <c r="J44" t="s">
+        <v>375</v>
+      </c>
+      <c r="K44" t="s">
+        <v>376</v>
+      </c>
+      <c r="L44" t="s">
+        <v>377</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>378</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>379</v>
+      </c>
+      <c r="X44" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>382</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>383</v>
+      </c>
+      <c r="J45" t="s">
+        <v>384</v>
+      </c>
+      <c r="K45" t="s">
+        <v>385</v>
+      </c>
+      <c r="L45" t="s">
+        <v>386</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>387</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>388</v>
+      </c>
+      <c r="X45" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>392</v>
+      </c>
+      <c r="J46" t="s">
+        <v>393</v>
+      </c>
+      <c r="K46" t="s">
+        <v>394</v>
+      </c>
+      <c r="L46" t="s">
+        <v>395</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>396</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>397</v>
+      </c>
+      <c r="X46" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>400</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>401</v>
+      </c>
+      <c r="J47" t="s">
+        <v>402</v>
+      </c>
+      <c r="K47" t="s">
+        <v>403</v>
+      </c>
+      <c r="L47" t="s">
+        <v>404</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>405</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>406</v>
+      </c>
+      <c r="X47" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>409</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>410</v>
+      </c>
+      <c r="J48" t="s">
+        <v>411</v>
+      </c>
+      <c r="K48" t="s">
+        <v>333</v>
+      </c>
+      <c r="L48" t="s">
+        <v>412</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>405</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>406</v>
+      </c>
+      <c r="X48" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>414</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J49" t="s">
+        <v>416</v>
+      </c>
+      <c r="K49" t="s">
+        <v>417</v>
+      </c>
+      <c r="L49" t="s">
+        <v>418</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>419</v>
+      </c>
+      <c r="O49" t="s">
+        <v>118</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>420</v>
+      </c>
+      <c r="X49" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>423</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>424</v>
+      </c>
+      <c r="J50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" t="s">
+        <v>426</v>
+      </c>
+      <c r="L50" t="s">
+        <v>427</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>428</v>
+      </c>
+      <c r="X50" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>431</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>432</v>
+      </c>
+      <c r="J51" t="s">
+        <v>433</v>
+      </c>
+      <c r="K51" t="s">
+        <v>434</v>
+      </c>
+      <c r="L51" t="s">
+        <v>435</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>436</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>428</v>
+      </c>
+      <c r="X51" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>438</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>439</v>
+      </c>
+      <c r="J52" t="s">
+        <v>440</v>
+      </c>
+      <c r="K52" t="s">
+        <v>441</v>
+      </c>
+      <c r="L52" t="s">
+        <v>442</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>443</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>444</v>
+      </c>
+      <c r="X52" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>447</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>448</v>
+      </c>
+      <c r="J53" t="s">
+        <v>449</v>
+      </c>
+      <c r="K53" t="s">
+        <v>450</v>
+      </c>
+      <c r="L53" t="s">
+        <v>451</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>452</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>444</v>
+      </c>
+      <c r="X53" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>454</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>455</v>
+      </c>
+      <c r="J54" t="s">
+        <v>456</v>
+      </c>
+      <c r="K54" t="s">
+        <v>457</v>
+      </c>
+      <c r="L54" t="s">
+        <v>458</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>452</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>459</v>
+      </c>
+      <c r="X54" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>462</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>463</v>
+      </c>
+      <c r="J55" t="s">
+        <v>464</v>
+      </c>
+      <c r="K55" t="s">
+        <v>465</v>
+      </c>
+      <c r="L55" t="s">
+        <v>466</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>467</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>468</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>469</v>
+      </c>
+      <c r="J56" t="s">
+        <v>470</v>
+      </c>
+      <c r="K56" t="s">
+        <v>471</v>
+      </c>
+      <c r="L56" t="s">
+        <v>472</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>473</v>
+      </c>
+      <c r="X56" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>476</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>477</v>
+      </c>
+      <c r="J57" t="s">
+        <v>478</v>
+      </c>
+      <c r="K57" t="s">
+        <v>479</v>
+      </c>
+      <c r="L57" t="s">
+        <v>480</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>481</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>483</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>484</v>
+      </c>
+      <c r="J58" t="s">
+        <v>485</v>
+      </c>
+      <c r="K58" t="s">
+        <v>486</v>
+      </c>
+      <c r="L58" t="s">
+        <v>487</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>488</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>490</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>491</v>
+      </c>
+      <c r="J59" t="s">
+        <v>492</v>
+      </c>
+      <c r="K59" t="s">
+        <v>493</v>
+      </c>
+      <c r="L59" t="s">
+        <v>494</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>495</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>496</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>497</v>
+      </c>
+      <c r="J60" t="s">
+        <v>498</v>
+      </c>
+      <c r="K60" t="s">
+        <v>499</v>
+      </c>
+      <c r="L60" t="s">
+        <v>500</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>501</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>502</v>
+      </c>
+      <c r="X60" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>505</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>506</v>
+      </c>
+      <c r="J61" t="s">
+        <v>507</v>
+      </c>
+      <c r="K61" t="s">
+        <v>508</v>
+      </c>
+      <c r="L61" t="s">
+        <v>509</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>510</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>511</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>512</v>
+      </c>
+      <c r="J62" t="s">
+        <v>513</v>
+      </c>
+      <c r="K62" t="s">
+        <v>514</v>
+      </c>
+      <c r="L62" t="s">
+        <v>515</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>516</v>
+      </c>
+      <c r="O62" t="s">
+        <v>118</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>517</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>518</v>
+      </c>
+      <c r="J63" t="s">
+        <v>519</v>
+      </c>
+      <c r="K63" t="s">
+        <v>520</v>
+      </c>
+      <c r="L63" t="s">
+        <v>521</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>522</v>
+      </c>
+      <c r="O63" t="s">
+        <v>82</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>524</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>525</v>
+      </c>
+      <c r="J64" t="s">
+        <v>526</v>
+      </c>
+      <c r="K64" t="s">
+        <v>527</v>
+      </c>
+      <c r="L64" t="s">
+        <v>528</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>529</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>530</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>531</v>
+      </c>
+      <c r="J65" t="s">
+        <v>532</v>
+      </c>
+      <c r="K65" t="s">
+        <v>533</v>
+      </c>
+      <c r="L65" t="s">
+        <v>534</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>535</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>537</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>538</v>
+      </c>
+      <c r="J66" t="s">
+        <v>539</v>
+      </c>
+      <c r="K66" t="s">
+        <v>540</v>
+      </c>
+      <c r="L66" t="s">
+        <v>541</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>542</v>
+      </c>
+      <c r="O66" t="s">
+        <v>132</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>544</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>545</v>
+      </c>
+      <c r="J67" t="s">
+        <v>546</v>
+      </c>
+      <c r="K67" t="s">
+        <v>547</v>
+      </c>
+      <c r="L67" t="s">
+        <v>548</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>549</v>
+      </c>
+      <c r="O67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_329.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_329.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="877">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,96 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r609961956-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>223655</t>
+  </si>
+  <si>
+    <t>609961956</t>
+  </si>
+  <si>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>Nice building and rooms but...</t>
+  </si>
+  <si>
+    <t>We booked about 20 rooms for a wedding party and thought this place had the perfect mix of affordability and high end amenities.  When we checked in we found that they had made a total mess of our reservations.  The group sales lady promised we could add the breakfast buffet on checkin for $10, but of course the front desk didn't know how to do that and was no help at all when everyone was ready to sit down to the first breakfast.  We reserved suites attached to non-suites for the bridesmaids, and same for the groomsman, but neither got connected rooms in the end.  Some of the front desk help were down right rude.  This place needs to hire some Hyatt/Hilton quality level of employees to go with the Hyatt/Hilton look and feel of the place.I hate to leave only 2 stars for this place, since the rooms, the bar, breakfast, pool and hottub are all very nice, and well above the Comfort Inn type of place which is about the same price, but the service and disorganization just ruined the experience for us.Since the stay, I've left several messages for the GM, Lisa, and she hasn't bothered to call me back.  They did comp a couple of rooms to help ease the pain of all the many mistakes.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We booked about 20 rooms for a wedding party and thought this place had the perfect mix of affordability and high end amenities.  When we checked in we found that they had made a total mess of our reservations.  The group sales lady promised we could add the breakfast buffet on checkin for $10, but of course the front desk didn't know how to do that and was no help at all when everyone was ready to sit down to the first breakfast.  We reserved suites attached to non-suites for the bridesmaids, and same for the groomsman, but neither got connected rooms in the end.  Some of the front desk help were down right rude.  This place needs to hire some Hyatt/Hilton quality level of employees to go with the Hyatt/Hilton look and feel of the place.I hate to leave only 2 stars for this place, since the rooms, the bar, breakfast, pool and hottub are all very nice, and well above the Comfort Inn type of place which is about the same price, but the service and disorganization just ruined the experience for us.Since the stay, I've left several messages for the GM, Lisa, and she hasn't bothered to call me back.  They did comp a couple of rooms to help ease the pain of all the many mistakes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r607515460-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>607515460</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>Old Faithful</t>
+  </si>
+  <si>
+    <t>This is my go-to hotel in The Woodlands\Spring.  It may be an older property, but it is well maintained and the staff is the friendliest and most helpful of any property I stay at.  AC always works well, and there is not an energy management system, so your room is always cool when you come back after a long day's work.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r604393884-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>604393884</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>Friendly and Clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Located at a busy intersection, but has no trouble. There is a back exit so you don't have to fight the feeder road traffic. Staff was very friendly. Beds were soft which is important to me. Standard HIExpress breakfast. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r604001309-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>604001309</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Nice big rooms! Parking for trailers too!</t>
+  </si>
+  <si>
+    <t>We found our room to be nice and big, clean and appeared to be recently remodeled. Hotel is close to the highway and tons of places to eat. We were towing a trailer behind our pickup and there is a parking area between here and the next door hotel that security said we could park in. The guard runs around in a golf cart and keeps an eye on the place until 6am!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r593885927-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
-    <t>56701</t>
-  </si>
-  <si>
-    <t>223655</t>
-  </si>
-  <si>
     <t>593885927</t>
   </si>
   <si>
@@ -174,16 +252,10 @@
     <t>Drove 9 hours to the hotel only to find out our rooms was not what we reserved. The lady working on 7-07 was rude and told us there was a glitch and she could not really do anything about it . We have three children and  the other party as well had three children there was nothing left in the area and drove down a bit farther to a super nice Marriot . Should had known better ... really wish a manager would contact me. Called corporate and lady hung up.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded July 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2018</t>
   </si>
   <si>
     <t>Drove 9 hours to the hotel only to find out our rooms was not what we reserved. The lady working on 7-07 was rude and told us there was a glitch and she could not really do anything about it . We have three children and  the other party as well had three children there was nothing left in the area and drove down a bit farther to a super nice Marriot . Should had known better ... really wish a manager would contact me. Called corporate and lady hung up.More</t>
@@ -207,9 +279,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded April 23, 2018</t>
   </si>
   <si>
@@ -246,6 +315,57 @@
     <t>This hotel is a good hotel for families.  It is s clean hotel and the staff is very friendly.  The breakfast could use a little tweaking such as, having an oatmeal warmer instead of packets.  It has a gym area and a pool however, we did not take advantage of the use.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r561968788-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>561968788</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>The Best Option in Socorro</t>
+  </si>
+  <si>
+    <t>In Socorro for start-in-the-middle-of-the-night-into-the-early-morning work with colleagues staying at other hotels in the area. Although IHG properties are not my first lodging option, the HIE is the best option in Socorro. And it meets the HIE norm of clean, moderately spacious, decent WiFI, pool, 24-hour coffee, location, etc. #It'sOkMoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>In Socorro for start-in-the-middle-of-the-night-into-the-early-morning work with colleagues staying at other hotels in the area. Although IHG properties are not my first lodging option, the HIE is the best option in Socorro. And it meets the HIE norm of clean, moderately spacious, decent WiFI, pool, 24-hour coffee, location, etc. #It'sOkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r529202433-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>529202433</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>The staff were friendly and professional. The breakfast was good.  My two children enjoyed it.  The pool was just the right size but we did not get to utilized because it was a little.  It was easy access to and from the Woodlands Mall for shopping, dining and movie theater The rooms were very clean and the price was reasonableMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>The staff were friendly and professional. The breakfast was good.  My two children enjoyed it.  The pool was just the right size but we did not get to utilized because it was a little.  It was easy access to and from the Woodlands Mall for shopping, dining and movie theater The rooms were very clean and the price was reasonableMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r516074764-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -264,9 +384,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded August 23, 2017</t>
   </si>
   <si>
@@ -327,6 +444,60 @@
     <t>Very nice hotel over I-45 In Conroe, Texas, it is very clean, location is good, crossing the street there is a huge outback, it has a big pool in the back of the building, very very comfortable hotel ,More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r490116312-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>490116312</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Tournament Comfort</t>
+  </si>
+  <si>
+    <t>We stayed here on a family trip for our son's karate tournament.  We got two comfortable rooms each with two queen sized beds.The beds were outstanding as usual and my wife enjoyed a workout in the gym.  Breakfast was fresh and as expected.  Anytime I've stayed in a HIExpress, it has been an excellent experience.  You just can't beat the price either.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here on a family trip for our son's karate tournament.  We got two comfortable rooms each with two queen sized beds.The beds were outstanding as usual and my wife enjoyed a workout in the gym.  Breakfast was fresh and as expected.  Anytime I've stayed in a HIExpress, it has been an excellent experience.  You just can't beat the price either.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r489104589-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>489104589</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Good for a quick night's stay</t>
+  </si>
+  <si>
+    <t>We stayed here for a waterpolo tournament down the street at the CISD Natatorium. Our arrival was at nearly 2am after driving in from Dallas and our keys were ready when we got there.  Our room was upgraded to a suite, which was great and I wished we had more time to stay there but we had to leave by 730am.The hotel itself seemed really clean and well taken care of. The only thing was the front desk agent that night seemed a bit disinterested and didn't mention my Spire status or ask if I wanted bonus points at check in.  Other than that, it was great for a few hours rest!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for a waterpolo tournament down the street at the CISD Natatorium. Our arrival was at nearly 2am after driving in from Dallas and our keys were ready when we got there.  Our room was upgraded to a suite, which was great and I wished we had more time to stay there but we had to leave by 730am.The hotel itself seemed really clean and well taken care of. The only thing was the front desk agent that night seemed a bit disinterested and didn't mention my Spire status or ask if I wanted bonus points at check in.  Other than that, it was great for a few hours rest!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r485989780-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -369,9 +540,6 @@
     <t>Spacious, clean and well decorated room. Large seating area for breakfast which had excellent selection of breakfast foods. Computer for checking in with airline including a printer to print boarding passes!MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -399,6 +567,48 @@
     <t>Stayed with my husband two weekends in a row and both times the staff was helpful and friendly, the rooms were spacious and clean and the bed was very comfy.  We usually stay in much more expensive properties but ended up here for convenience. So glad we did!  The price is great and rivals those "big" guys. We will be back!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r484812387-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>484812387</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Perfect Choice for the Area</t>
+  </si>
+  <si>
+    <t>On an extended business trip, stayed at the Holiday Inn Express; very convenient location and super friendly staff. Very clean, convenience stores nearby, plenty of dining establishments around and within walking distance.Convenient shuttle service.MoreShow less</t>
+  </si>
+  <si>
+    <t>On an extended business trip, stayed at the Holiday Inn Express; very convenient location and super friendly staff. Very clean, convenience stores nearby, plenty of dining establishments around and within walking distance.Convenient shuttle service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r481295452-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>481295452</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Average at best, but clean</t>
+  </si>
+  <si>
+    <t>Some exterior upgrades and thus pics can be deceiving.  But clean, and front desk staff very professional and friendly.  Not a great hotel, but clean and average, and a reasonably priced alternative to higher-end Woodlands hotels, but still close.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Some exterior upgrades and thus pics can be deceiving.  But clean, and front desk staff very professional and friendly.  Not a great hotel, but clean and average, and a reasonably priced alternative to higher-end Woodlands hotels, but still close.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r481099408-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -417,12 +627,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 19, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 19, 2017</t>
-  </si>
-  <si>
     <t>Witnessed the hotel staff very rudely throw out a Veteran and his service dog without justification.  Never seen anything like it in my life. No one should receive this treatment. I will NEVER stay at a Holiday Inn again after this distasteful incident.More</t>
   </si>
   <si>
@@ -453,6 +657,57 @@
     <t>This location is horrible. They threw out a disabled veteran and his service dog because he received phone calls on his room phone. They had no guts to tell him to his face but simply deactivated his keycards and informed him at 9pm at night. The literal reason was that he received phone calls - a normal and typical service for any hotel and its patrons.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r471841149-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>471841149</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Very satisfied and well rested</t>
+  </si>
+  <si>
+    <t>Employees are kind and helpful. Rooms are very clean (I had a total of 8 rooms being used). Beds are very comfortable. Best shower I've had in a hotel ever. The water pressure is amazing. Breakfast is hot and tasty. Security guard is visible. I will definitely use this hotel again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Employees are kind and helpful. Rooms are very clean (I had a total of 8 rooms being used). Beds are very comfortable. Best shower I've had in a hotel ever. The water pressure is amazing. Breakfast is hot and tasty. Security guard is visible. I will definitely use this hotel again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r462005159-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>462005159</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Throughout the years I stayed here so many times.</t>
+  </si>
+  <si>
+    <t>The first time I was in Conroe to visit National Oiwell Varco's manufacturing plant was in 2007, and they set me to stay at this hotel. Since then to 2015, when I left the company, I was very well treated by the nice employees that have been working there.Nice and clean rooms, microwave and fridge make it a perfect place to stay, especially if you will work at night and want to prepare your dinner.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>The first time I was in Conroe to visit National Oiwell Varco's manufacturing plant was in 2007, and they set me to stay at this hotel. Since then to 2015, when I left the company, I was very well treated by the nice employees that have been working there.Nice and clean rooms, microwave and fridge make it a perfect place to stay, especially if you will work at night and want to prepare your dinner.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r449739974-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -531,6 +786,60 @@
     <t>I really felt comfortable at this location.  All of the features were either updated or newer.  It had a mini fridge too.  There were just 2 things that need to be improved though.  The shower water pressure was sub-par.  The pressure was so low that it was hard to rinse off completely.  The other suggestion is the desk placement right in front of the A/C unit is not a good idea.  I had quite a bit of work to do the night I stayed and every 10-15 minutes the A/C would blow right on me.  That was not comfortable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r431535416-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>431535416</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>reliable</t>
+  </si>
+  <si>
+    <t>after our 5th stay at this hotel, i feel it is worth every penny.  spotlessly clean and somehow, over 3-4 years, seems to always look brand new.  when in the area, why stay anywhere else? We will be back in the spring.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>after our 5th stay at this hotel, i feel it is worth every penny.  spotlessly clean and somehow, over 3-4 years, seems to always look brand new.  when in the area, why stay anywhere else? We will be back in the spring.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r421262277-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>421262277</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent value for ur budget </t>
+  </si>
+  <si>
+    <t>Located at the I45 highway which makes it easy for u to hit any place u want with no headache.. very clean room and spacious enough for ur stay with good clean bathrooms. Staff is friendly and assist ur needs to their best . It is an express hotel so don't have expectations for food but it is at walking distance from plenty of restaurants nearby . I liked it and would stay again there if It happens and I visit the area .. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Located at the I45 highway which makes it easy for u to hit any place u want with no headache.. very clean room and spacious enough for ur stay with good clean bathrooms. Staff is friendly and assist ur needs to their best . It is an express hotel so don't have expectations for food but it is at walking distance from plenty of restaurants nearby . I liked it and would stay again there if It happens and I visit the area .. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r420420467-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -546,9 +855,6 @@
     <t>Stayed here for three nights in Sep 2016. Despite there being no room service, the room (suite) was excellent and on par comfort wise with a good Intercontinental. The staff were friendly. Check in was friendly and efficient, as was check out. The breakfast was limited but had enough fruit and healthy options to suit me. The internet (free) was excellent and the facilities in the room were superb. If the location suits you as it did me, you would be hard pushed to find anything of this quality at such reasonable prices.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded September 21, 2016</t>
   </si>
   <si>
@@ -612,6 +918,51 @@
     <t>I reached very late one night in April 2016 for a business trip. The receptionist was very courteous even that that time of the night. The room itself was comfortable, although I slept for hardly few hours. The breakfast area does get a bit clammed up in the morning, but I was in a rush, so it was ok.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r385246397-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>385246397</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Great place to overnight after watching Buffett at the Cynthia Woods Mitchell Pavilion</t>
+  </si>
+  <si>
+    <t>The usual great HI Express experience with staff that are very patient with a hotel full of drunken middle aged Parrotheads.  Very convenient location for a quick bite late at night.  Will definitely stay here for future concerts.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>The usual great HI Express experience with staff that are very patient with a hotel full of drunken middle aged Parrotheads.  Very convenient location for a quick bite late at night.  Will definitely stay here for future concerts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r380987857-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>380987857</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and updated</t>
+  </si>
+  <si>
+    <t>Nice place to stay just south of the Woodlands. Appears the hotel has been updated. The lobby was nice and comfortable for breakfast with plenty of room. Room on 2nd floor midway back (218) from lobby and we didn't have any road noise. A little nicer than most HI Expresses and would certainly stay again. Front desk staff was pleasant and accommodating. MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay just south of the Woodlands. Appears the hotel has been updated. The lobby was nice and comfortable for breakfast with plenty of room. Room on 2nd floor midway back (218) from lobby and we didn't have any road noise. A little nicer than most HI Expresses and would certainly stay again. Front desk staff was pleasant and accommodating. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r377407269-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -672,15 +1023,60 @@
     <t>05/18/2016</t>
   </si>
   <si>
-    <t>reliable</t>
-  </si>
-  <si>
     <t>This is a go to location for us.  Always a good rest and the fitness room puts other Holiday Inn Express to shame.  The breakfast is the standard fare for a breakfast bar set up.  liked the cookies at arrival.MoreShow less</t>
   </si>
   <si>
     <t>This is a go to location for us.  Always a good rest and the fitness room puts other Holiday Inn Express to shame.  The breakfast is the standard fare for a breakfast bar set up.  liked the cookies at arrival.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r372874116-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>372874116</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>Convenient if you are doing business in Woodlands</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express is trying to build their brand as a chain of hotels that is reliable and predictable, and they seem to be succeeding.As usual, the decor and style of the hotel was similar to the other Holiday Inn Express hotels, as were the amenities. It's not bare bones, but it's not lavish either. But, the room was quiet and the bed comfortable, everything is clean and it worked just fine. The vending machines were mentioned as a service but I didn't find any, and the ice machine was broken - but really that's not a big deal.The pool isn't anything special, but not bad in a pinch.I chose this location because I had meetings in the Woodlands and wanted somewhere that was between there and IAH, and this was perfect. Easy freeway access.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express is trying to build their brand as a chain of hotels that is reliable and predictable, and they seem to be succeeding.As usual, the decor and style of the hotel was similar to the other Holiday Inn Express hotels, as were the amenities. It's not bare bones, but it's not lavish either. But, the room was quiet and the bed comfortable, everything is clean and it worked just fine. The vending machines were mentioned as a service but I didn't find any, and the ice machine was broken - but really that's not a big deal.The pool isn't anything special, but not bad in a pinch.I chose this location because I had meetings in the Woodlands and wanted somewhere that was between there and IAH, and this was perfect. Easy freeway access.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r364127829-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>364127829</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>A little Gem</t>
+  </si>
+  <si>
+    <t>Very nice and modern hotel right off the I45.  Well equipped fitness room.  Within walking distance of some good restaurants, although there is no easy walking path to get to some of the locations.  My room was clean and very roomy. The person working at the desk when I stayed was very friendly and helpful giving me information and advice since I was new to the area.  Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Very nice and modern hotel right off the I45.  Well equipped fitness room.  Within walking distance of some good restaurants, although there is no easy walking path to get to some of the locations.  My room was clean and very roomy. The person working at the desk when I stayed was very friendly and helpful giving me information and advice since I was new to the area.  Would stay again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r349811900-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -759,6 +1155,48 @@
     <t>I was in the area visiting family. I booked 2 paid nights and one reward night for a total of 3 nights. Upon check in I was assured that both reservations would be merged and we wouldn't have any problems. The second night we tried to use our room keys to enter a side door and the were not active. I went to the front desk to get new keys. Once again I was assured there would be no problem and my reservations would be merged. The 2nd morning when walking to breakfast the housekeeper asked me when we would be checking out. I had to go to the front desk to make sure we were not locked out of our room. Everything was fixed accordingly but it was frustrating to say the least. In addition to that, we had problems with our television and the night clerk did not answer the phone after calling 5 times nor did he know how to fix the problem or care to. Other than the issues with the desk the facilities were very nice and clean and the breakfast offering was appropriate. I think this facility is a nice place I am hoping that my experience was an isolated fluke. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r341074047-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>341074047</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housekeeping thieves! </t>
+  </si>
+  <si>
+    <t>Someone in this hotel is a thief!!! I accidentally left a very sentimental necklace on the bathroom counter after my morning shower. After realizing I had forgotten to put the necklace back on I called the hotel and was repeatedly told that the necklace was not in lost and found. I eventually spoke with a manager who says they had spoken with the housekeeper who cleaned our room after our departure and denies having the necklace. I absolutely know it was left on that bathroom counter. This hotel clearly has dishonest and untrustworthy employees. I'd be cautious to trust this hotel with any belongings in your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn E, General Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Someone in this hotel is a thief!!! I accidentally left a very sentimental necklace on the bathroom counter after my morning shower. After realizing I had forgotten to put the necklace back on I called the hotel and was repeatedly told that the necklace was not in lost and found. I eventually spoke with a manager who says they had spoken with the housekeeper who cleaned our room after our departure and denies having the necklace. I absolutely know it was left on that bathroom counter. This hotel clearly has dishonest and untrustworthy employees. I'd be cautious to trust this hotel with any belongings in your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r332807229-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>332807229</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Standard HIEX with excellent staff</t>
+  </si>
+  <si>
+    <t>Hotel is looking like any other Holiday Inn Express, but the staff makes quite some difference; really genuine caring attitude together with superb politeness is making my stay happy. I'm there at least 4 times a year and will continue coming back.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r320248274-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -774,9 +1212,6 @@
     <t>Overall the hotel was fine.  Interior has been updated and rooms were modern, nice and clean.  Once inside the hotel, all was good.  The drive up is not appealing (location).  It sits on the feeder road to I-45 and there were trailers, cargo containers at back of lot, people hanging out in parking lot at night when we arrived and just didn't feel safe or comfortable parking and walking in.  Lots of road noise, even at midnight when we got to bed.  No road noise when I woke up in middle of night though.Hotel did have ice on every floor by the elevators and that was convenient.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded November 3, 2015</t>
   </si>
   <si>
@@ -819,6 +1254,39 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r305496417-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>305496417</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Best Holiday Inn Express I've Stayed at in a While! Great beds!</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised when I stayed 5 nights at this Holiday Inn Express for work as to the comfort and professionalism I found. The beds are very comfortable and breakfast was always ready at 6:30. The rooms don't have bath tubs, just showers. It can be a little noisy since it is right beside the interstate. The workout facility is nothing too special, but there is a park not too far for running. Good staff and very close to The Woodlands. Pool was very small, but there was a hot tub. However, both are on the side of the hotel near the interstate...so very noisy.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r301939268-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>301939268</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Comfy beds!</t>
+  </si>
+  <si>
+    <t>That's right, very comfortable bed. Very close to Cynthia Woods Mitchell Pavilion so we crashed here after a concert. We enjoyed free beverages from 5-8. Pool is small but who cares. Free breakfast. Free parking. Close to the mall and many restaurants. Definitely will stay there again!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r297059447-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -832,9 +1300,6 @@
   </si>
   <si>
     <t>The receptionist was very welcoming, courteous and helpful. He found us a great room even without prior reservation. The hotel was clean, the lobby area was attractive, the guest room and bathroom were very clean. I slept like a baby as soon as I laid down, the beds were so comfortable, it was really worth the price. The morning staff were very friendly during checkout, I asked about my IHG rewards and they made sure it was posted to my account. My children also commented about how comfortable the beds were. When I travel back to Houston I will definitely stay here again.</t>
-  </si>
-  <si>
-    <t>August 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r295486322-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
@@ -881,6 +1346,39 @@
 When I returned to the hotel the following evening, there still wasn't any hot water in the shower.  I phoned the front desk to inquire whether maintenance had looked into the issue.  The front desk clerk (tall, thin male w/brown wavy hair) told me that the maintenance ticket showed the issue was...The first evening of my stay, I discovered there was no hot water in the shower.  I phoned the front desk to report the problem.  The front desk clerk (Joshua) told me that maintenance had already left for the day.  He did offer to move me to a different room.  However, after a long day of travel and due to the fact that I had already unpacked and had food in the mini-fridge, I told Joshua that I would stay in my registered room and just take a shower in the other room.  Joshua informed me that option would not be acceptable because I would be "dirtying up the room making it unavailable to rent out to another guest".  I told Joshua that regardless of whether I moved into the new room or just used the shower in that room, it would be unavailable for another guest.  Joshua was unable or unwilling to see the logic in this statement.  I consequently remained in my registered room and took a cold shower that evening.  Joshua assured me that maintenance would rectify the issue the first thing in the morning.When I returned to the hotel the following evening, there still wasn't any hot water in the shower.  I phoned the front desk to inquire whether maintenance had looked into the issue.  The front desk clerk (tall, thin male w/brown wavy hair) told me that the maintenance ticket showed the issue was resolved.  He said he would phone the maintenance man and put me on hold.  After being on hold for over ten minutes, I went downstairs to speak to the clerk in person.  The clerk was checking in other guests.  When I  expressed my displeasure for being put on hold forever while he assisted other guests, he rudely responded, "forever?  literally??"  I am a frequent business traveler and this experience was extremely disappointing.  Hotel Management needs to retrain the front desk staff on basic customer service and common courtesy.  Other hotel property issues noted: (1) A/C units need to be checked.  The thermostat has to be turned down to 65 degrees to reach what feels like a temperature of 73 degrees. (2) The mini-fridge units do not include temperature adjustment knobs and do not appear to be functioning properly.  The freezer box of the my fridge unit had a puddle of water at the bottom. (3) The wall mounted hair dryer was installed so high and had such a short cord that I was unable to blowout my hair upside down.PS.  I did not have hot water in the shower until the third and final night of my stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r284126554-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>284126554</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent a couple of nights here. Great experience from check in to check out. The staff made sure I was well taken care of. The room was clean and well decorated. The bed and pillows were extremely comfortable. Being right off 45 I expected a lot of noise, however that wasn't the case for my room. The only thing I have to recommend is if you want a pop get it out of the machine it is 2 dollars vs. 3 at the front desk. </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r283718119-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>283718119</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This is a nice quiet hotel even though it is right off I-45. The air conditioning unit has a constant fan setting that gives off white noise (which I love). It was very clean and the staff is great! Check in was easy and professional. It would be nice if there was a newer model treadmill but that would be my only criticism.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r277117759-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1445,57 @@
     <t>Located right off I-45 in Spring (south of The Woodlands &amp; north of Houston). The hotel itself is nice enough. Front check-in staff were very inattentive and almost rude and mostly non-existent. The rooms themselves were nice and clean and my stay was very quiet. Breakfast was underwhelming with cold cereal, oatmeal, breads, and a small area with biscuits, gravy, ham and turkey sausage - all of which were cold, rubbery and tasteless. This hotel is not bad, just nothing to brag about.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r269460046-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>269460046</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Just North of Houston, Clean and Friendly</t>
+  </si>
+  <si>
+    <t>This seems to be a recently built hotel that was super clean and a very friendly front desk crew. My wife could have stayed for days, she found the bed super comfortable. Our stay was first rate all around. Easy access to the interstate going north or south.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>BDeshon, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2015</t>
+  </si>
+  <si>
+    <t>This seems to be a recently built hotel that was super clean and a very friendly front desk crew. My wife could have stayed for days, she found the bed super comfortable. Our stay was first rate all around. Easy access to the interstate going north or south.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r268894865-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>268894865</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Better places to stay then here</t>
+  </si>
+  <si>
+    <t>I found that the check in person was rude and uninterested. After I got my room key and headed up, I had to call down and ask why I was given a standard room when I had booked a suite, and also told him that I am a HIG Platinum member. To be honest this front desk person could have cared less and only after asking was I given a new room that was a suite on the second floor, however the folks above me were very loud and stomped around. There was also a lot of kinds this weekend and they were very noisy. I can deal with the noise from the children, but not what I felt was rudeness from the front desk. I Will Not Stay Here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>I found that the check in person was rude and uninterested. After I got my room key and headed up, I had to call down and ask why I was given a standard room when I had booked a suite, and also told him that I am a HIG Platinum member. To be honest this front desk person could have cared less and only after asking was I given a new room that was a suite on the second floor, however the folks above me were very loud and stomped around. There was also a lot of kinds this weekend and they were very noisy. I can deal with the noise from the children, but not what I felt was rudeness from the front desk. I Will Not Stay Here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r242781447-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1010,6 +1559,51 @@
     <t>I stayed at this hotel last year and was very impressed with my recent stay! The property has been recently renovated and the new furniture and carpet is wonderful!! The evening and overnight staff were very nice and accommodating! We will be back!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r237535791-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>237535791</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>The check in process was efficient and welcoming. The interior is clean and updated. The room is large, clean,  comfortable and quiet. The bed large and comfortable with many nice pillows.  The gym is bright  and well equipped. A nice relaxing visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2014</t>
+  </si>
+  <si>
+    <t>The check in process was efficient and welcoming. The interior is clean and updated. The room is large, clean,  comfortable and quiet. The bed large and comfortable with many nice pillows.  The gym is bright  and well equipped. A nice relaxing visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r236894715-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>236894715</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>I usually stay at Hilton properties but this HIE may have changed my loyalty. It's clean, the staff are friendly, the prices are reasonable, and it's in a location close enough to downtown Houston. They also scored top points on the two things that matter most to me when I travel for business:beds and breakfast.  The bed was extremely comfortable (I slept like a rock ) and the breakfast was actually better than most of the homewood suites I've stayed in. Very impressive!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I usually stay at Hilton properties but this HIE may have changed my loyalty. It's clean, the staff are friendly, the prices are reasonable, and it's in a location close enough to downtown Houston. They also scored top points on the two things that matter most to me when I travel for business:beds and breakfast.  The bed was extremely comfortable (I slept like a rock ) and the breakfast was actually better than most of the homewood suites I've stayed in. Very impressive!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r233191083-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1023,9 +1617,6 @@
   </si>
   <si>
     <t>In the area for a wedding and picked this place to stay and could not have chosen better. Very clean, very easy to get to, wonderful staff. The breakfast was actually very tasty although I suggest you get there early as the dining area fills fast. My only complaint was the horrific traffic which has nothing to do with the Holiday Inn but was very frustrating. Had two great nights sleep even with the interstate close by. Felt very safe coming in at night which we did. Overall a great place to stay and I would stay there again.MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2014</t>
   </si>
   <si>
     <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded April 6, 2015</t>
@@ -1091,6 +1682,39 @@
 I'm sure they also are at the Hampton Inn and Hilton Garden Inn...After a 6:00 AM flight to Houston, a long day of meetings and brutal traffic I was looking forward to a pleasant, trouble free check-in and relaxing night at what is a nice HI Express property even though the highway traffic makes it difficult to get to.The young lady checking me in was pleasant in welcoming me to the counter but became very flustered when her printer would not cooperate.Another young lady came to the counter to help another guest check in and it was a speedy efficient process. She processed him, inquired if he wanted HI points or the welcome package and told him about the evening cocktail hour with wine and beer and thanked him for being a Gold Member.The young lady checking me in asked me to sign the paperwork and configured my keys. I stood there for a minute and then asked if she had captured my IHG member number and she said oh, yeah I'll make sure you get the points.No offer of a choice between points or water and a snack, no invitation to the Happy Hour, no thank you for being a Gold Member, oh wait I'm a Platinum Member.I realize in the grand scheme of things this is a small thing - my room is great, the hotel is clean, well appointed and quiet.I'm sure they also are at the Hampton Inn and Hilton Garden Inn that I didn't book a room at, maybe its time to see how much Hilton Honors values loyalty?More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r226776382-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>226776382</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Always Fantastic!</t>
+  </si>
+  <si>
+    <t>This is a great facility just out of the traffic of Houston. The staff is fantastic and the most helpful I have experienced anywhere. The hotel is always clean and happy and great at making everyone feel at home. The breakfast area is upgraded and very nice. Great overall place to spend a few days.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r224998223-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>224998223</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Great ... Workout Room Lacking</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for years. May loyal HI EX customer and try to use their properties when I can because of the predictable level of quality This hotel has undergone a real transformation and the rooms, lobby, etc all more than meet my expectations. What CONTINUES TO DISAPPOINT is the Workout Room. Simply below standard, especially the cardio equipment which borderline dangerous. I love the hotel but also love to get some am PT, so after all the feedback, PLEASE MODERNIZE this facility to the level corporate business travellers expect.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r222694775-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1106,9 +1730,6 @@
     <t>I booked this hotel using priority points, we came here for a new grand baby being born. Our first room the AC didn't work, no problem they moved us to another room where the AC worked great! The room was clean except the tub had hair in it which was gross but not a deal breaker. The walls are thin and the room next door was noisy but it was ok, I've had small kids before. Hotel staff were friendly, overall everything here was great for us and I would stay here again, the location is great also!</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r218542437-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1151,6 +1772,57 @@
     <t>Love the hotel and the remodel is great but the workout room is absolutely terrible.  Eliptical is so bad I wouldn't even buy it as a cheap home version. The weight set up is a mess. So if u workout stay somewhere else unless u just use hand weights. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r213976547-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>213976547</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Newly renovated!</t>
+  </si>
+  <si>
+    <t>Everything is new again, This property is a credit to the Holiday Inn Express brand and I stay in a lot of them. Got off to a bumpy start when I ask for a room upgrade. I am an IHG Priority Club Platinum member. After a little negotiating we were upgraded.The refreshments in the lobby on week nights are a plus. Best thing is that Benito is serving them. He also drives the shuttle to local restaurants. He likes what he does and it shows.MoreShow less</t>
+  </si>
+  <si>
+    <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Everything is new again, This property is a credit to the Holiday Inn Express brand and I stay in a lot of them. Got off to a bumpy start when I ask for a room upgrade. I am an IHG Priority Club Platinum member. After a little negotiating we were upgraded.The refreshments in the lobby on week nights are a plus. Best thing is that Benito is serving them. He also drives the shuttle to local restaurants. He likes what he does and it shows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r210650320-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>210650320</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Right At Home</t>
+  </si>
+  <si>
+    <t>This is the first hotel that really truly felt like home. Super comfortable bed, super friendly staff, delicious breakfast. A little tricky to get to due to the road construction, but a pleasure once we arrived. Thanks for everything, Holiday Inn !MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2014</t>
+  </si>
+  <si>
+    <t>This is the first hotel that really truly felt like home. Super comfortable bed, super friendly staff, delicious breakfast. A little tricky to get to due to the road construction, but a pleasure once we arrived. Thanks for everything, Holiday Inn !More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r210338784-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1166,9 +1838,6 @@
     <t>We stayed here for one night while driving from Florida to Oklahoma.  The place is clean and updated.  The lobby is lovely and the staff is pleasant and helpful.  The first room we got smelled like a mixture of smoke and cleaning products, so we asked for another room.  The front desk happily complied and the new room was without the odor.  There were ample towels and toiletries.  The bathroom was fresh and clean.  The beds were ok, not great.  We found plenty of pillows.  The tv was nice and there were a lot of channels from which to choose.  No pay movies.  Air conditioning was provided through a window unit, and it was not bad.  For a non luxury hotel, these accommodations were just fine.  I think the room was overpriced, but that may be due to the area.Free wifi and free breakfast are included in the fee.  I must say breakfast, although advertised as a hot breakfast, was not great.  There was the standard hot coffee and juice, but the 'hot' part was comprised of biscuits and gravy and pre prepared 'omelets'.  The fresh fruit was nice.  I saw some cold cereal, toast, and packaged sweet rolls.  The breakfast area, however, was clean and updated.This place served our purpose, as we were able to get some sleep before resuming our drive.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>BDeshon, Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded June 16, 2014</t>
   </si>
   <si>
@@ -1232,6 +1901,67 @@
     <t>The place is in the final stages of a total renovation, but the remodeled rooms are very nice!  They have a clean, modern look, but still remain very comfortable.  One of my pet peeves about hotels is the lack of lighting.  Not in this place.  Even though they're using CFL's, the shades don't suck up the light.They've set up the bathrooms with a nice wide vanity that's big enough for the toiletries of two people.   At least in the room where we were staying there's a walk-in shower with plenty of pressure and hot water.My only squawk is there are no towel bars outside the shower area to hangup hand towels.  This seems to be a trend with HIE in general and it's not a plus with me.The front desk staff is very friendly and helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r191343373-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>191343373</t>
+  </si>
+  <si>
+    <t>01/19/2014</t>
+  </si>
+  <si>
+    <t>Nice last minute place</t>
+  </si>
+  <si>
+    <t>My room was clean but I reported the light blinking like a disco light when you first walked in, the ironing board would latch so I couldn't use it. I forgot to report it, the breakfast was very good each morning. MoreShow less</t>
+  </si>
+  <si>
+    <t>Susan R, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>My room was clean but I reported the light blinking like a disco light when you first walked in, the ironing board would latch so I couldn't use it. I forgot to report it, the breakfast was very good each morning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r190989667-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>190989667</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>We stayed there for New Years Eve.</t>
+  </si>
+  <si>
+    <t>We stayed there for New Year's Eve. The  toilet was FILTHY. There was a dark ring under the rim. There were DARK.stripes at the back of the bowl. I looked on the housekeeper's cart.  There was NO disinfectant or bowl cleaner.
+I did not shower. We did not have our included breakfast. If the toilet was filthy should I expect the kitchen to be better?
+Now the bad part. It was New Year's Morning. At about 8:30 AM, we were awakened by loud pounding in the room above us. It sounded like sledge hammers.
+When i took our luggage to our car, I saw a palate of mortar. i spoke to one of the workers to find out that they were renovating the third floor and the first floor. We were in room 251, right in the middle!
+When we checked out I informed the desk clerk about our experience. She said she was sorry. I asked to see the manager but he took the day off.  I did get his card.
+We returned on 1/6/14. I spoke with the manager about our experience. I showed him a photo  of the toilet. I told him about our rude awakening on 1/1/14. I told him about the EARLY wake up by his workers. He said that the workers were supposed to begin work around 10 am. i asked about check out time and I  was told  it was noon. Shouldn't we...We stayed there for New Year's Eve. The  toilet was FILTHY. There was a dark ring under the rim. There were DARK.stripes at the back of the bowl. I looked on the housekeeper's cart.  There was NO disinfectant or bowl cleaner.I did not shower. We did not have our included breakfast. If the toilet was filthy should I expect the kitchen to be better?Now the bad part. It was New Year's Morning. At about 8:30 AM, we were awakened by loud pounding in the room above us. It sounded like sledge hammers.When i took our luggage to our car, I saw a palate of mortar. i spoke to one of the workers to find out that they were renovating the third floor and the first floor. We were in room 251, right in the middle!When we checked out I informed the desk clerk about our experience. She said she was sorry. I asked to see the manager but he took the day off.  I did get his card.We returned on 1/6/14. I spoke with the manager about our experience. I showed him a photo  of the toilet. I told him about our rude awakening on 1/1/14. I told him about the EARLY wake up by his workers. He said that the workers were supposed to begin work around 10 am. i asked about check out time and I  was told  it was noon. Shouldn't we have peace and quiet before noon?I told him that he needed to terminate his executive housekeeper because of the filthy toilet. As far as our stay, he told me that he cold do NOTHING for us. I called corporate and they are sending a  check to us.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Susan R, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded January 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2014</t>
+  </si>
+  <si>
+    <t>We stayed there for New Year's Eve. The  toilet was FILTHY. There was a dark ring under the rim. There were DARK.stripes at the back of the bowl. I looked on the housekeeper's cart.  There was NO disinfectant or bowl cleaner.
+I did not shower. We did not have our included breakfast. If the toilet was filthy should I expect the kitchen to be better?
+Now the bad part. It was New Year's Morning. At about 8:30 AM, we were awakened by loud pounding in the room above us. It sounded like sledge hammers.
+When i took our luggage to our car, I saw a palate of mortar. i spoke to one of the workers to find out that they were renovating the third floor and the first floor. We were in room 251, right in the middle!
+When we checked out I informed the desk clerk about our experience. She said she was sorry. I asked to see the manager but he took the day off.  I did get his card.
+We returned on 1/6/14. I spoke with the manager about our experience. I showed him a photo  of the toilet. I told him about our rude awakening on 1/1/14. I told him about the EARLY wake up by his workers. He said that the workers were supposed to begin work around 10 am. i asked about check out time and I  was told  it was noon. Shouldn't we...We stayed there for New Year's Eve. The  toilet was FILTHY. There was a dark ring under the rim. There were DARK.stripes at the back of the bowl. I looked on the housekeeper's cart.  There was NO disinfectant or bowl cleaner.I did not shower. We did not have our included breakfast. If the toilet was filthy should I expect the kitchen to be better?Now the bad part. It was New Year's Morning. At about 8:30 AM, we were awakened by loud pounding in the room above us. It sounded like sledge hammers.When i took our luggage to our car, I saw a palate of mortar. i spoke to one of the workers to find out that they were renovating the third floor and the first floor. We were in room 251, right in the middle!When we checked out I informed the desk clerk about our experience. She said she was sorry. I asked to see the manager but he took the day off.  I did get his card.We returned on 1/6/14. I spoke with the manager about our experience. I showed him a photo  of the toilet. I told him about our rude awakening on 1/1/14. I told him about the EARLY wake up by his workers. He said that the workers were supposed to begin work around 10 am. i asked about check out time and I  was told  it was noon. Shouldn't we have peace and quiet before noon?I told him that he needed to terminate his executive housekeeper because of the filthy toilet. As far as our stay, he told me that he cold do NOTHING for us. I called corporate and they are sending a  check to us.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r186991698-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1250,12 +1980,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>Susan R, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded January 17, 2014</t>
-  </si>
-  <si>
-    <t>Responded January 17, 2014</t>
-  </si>
-  <si>
     <t>Five nights stay for business. Check in was quick, and as a (formerly known as) Priority Club member, received a gift bag of a bottle of water, Chex mix, and chocolate chip cookies. Nice touch, and the water was needed in the hot weather. Nice staff. Lots of conference rooms, but finding the elevator and room was easy. Breakfast was the generic Holiday Inn, and good. Rooms are perpendicular to I-45, but noise wasn't bad. It's on a one way frontage road from I-45, and easy to get to it. would stay here again.More</t>
   </si>
   <si>
@@ -1301,6 +2025,61 @@
     <t>Me &amp; a friend stayed here because it because it was very close The Woodlands area in which we were attending a concert. Also I have to thank the staff for being very nice. My friend had even accidentally lost her computer battery as we were leaving and the staff already had it when we called to check to see if it had been left there.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r167834615-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>167834615</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>What was expected.</t>
+  </si>
+  <si>
+    <t>The room was clean and in good condition. Staff was polite and prompt. It was what should be exspected from Holiday Inn.  I am a frequent business traveler. I tend to be conservative in my ratings. I would recommend this hotel to other business travelers. MoreShow less</t>
+  </si>
+  <si>
+    <t>SGraysonHIEW, Sales Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded July 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2013</t>
+  </si>
+  <si>
+    <t>The room was clean and in good condition. Staff was polite and prompt. It was what should be exspected from Holiday Inn.  I am a frequent business traveler. I tend to be conservative in my ratings. I would recommend this hotel to other business travelers. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r164931630-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>164931630</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Okay, with some odd problems</t>
+  </si>
+  <si>
+    <t>I stayed two nights. The initial reservation was for one night at the "advance booking" rate, then I had to add a second night just a few days before I came. For some reason, even though I kept the same room, I was told I had to check out and re-register on the second day. That's a weird extra step - you'd think this would happen enough that the computer would be able to figure it out. I wasn't recognized as a Priority Club member verbally but I did receive a bag with bottled water and snacks.
+The first thing that greeted me in my room was a large roach, still alive and squirming on its back. I snapped a photo (q.v.) before disposing of it, then got some unpacking done before going out for a while. I showed the photo to the desk staff - quietly and unobtrusively because I didn't want to be "that" guest. They offered to spray the room. It ended up not happening, which is probably just as well because the smell of Raid isn't exactly conducive to a good night's sleep.
+Later in the evening, I set up my laptop at the desk and started to work. I opened the drawer to store my flash drive - and it landed on my foot. There was a substantial hole in the drawer. (q.v.) Since my complaint about a roach was "resolved" by offering to spray...I stayed two nights. The initial reservation was for one night at the "advance booking" rate, then I had to add a second night just a few days before I came. For some reason, even though I kept the same room, I was told I had to check out and re-register on the second day. That's a weird extra step - you'd think this would happen enough that the computer would be able to figure it out. I wasn't recognized as a Priority Club member verbally but I did receive a bag with bottled water and snacks.The first thing that greeted me in my room was a large roach, still alive and squirming on its back. I snapped a photo (q.v.) before disposing of it, then got some unpacking done before going out for a while. I showed the photo to the desk staff - quietly and unobtrusively because I didn't want to be "that" guest. They offered to spray the room. It ended up not happening, which is probably just as well because the smell of Raid isn't exactly conducive to a good night's sleep.Later in the evening, I set up my laptop at the desk and started to work. I opened the drawer to store my flash drive - and it landed on my foot. There was a substantial hole in the drawer. (q.v.) Since my complaint about a roach was "resolved" by offering to spray poisonous chemicals in my room, I decided not to mention the desk.The lobby was scrupulously clean. I never entered or left without encountering someone cleaning. The hallway to the elevators takes guests past the meeting rooms, and for whatever reason the group using the rooms left unattended backpacks up and down the hallway. I saw several people have trouble navigating their rolling suitcases past all the backpacks.The breakfast area was clean and well-stocked. I did not use the pool or fitness rooms. I did print some things at the business center, which was clean and readily available.This is the really weird part - when I submitted this review to the IHG website, I got an e-mail message saying that they weren't going to post it because "the hotel management will be reaching out to you via e-mail within 24 hours." That never happened, so I wrote back and asked for the review to be posted. It's been two weeks and I've received no reply, nor has the review been posted.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston North-Spring, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>I stayed two nights. The initial reservation was for one night at the "advance booking" rate, then I had to add a second night just a few days before I came. For some reason, even though I kept the same room, I was told I had to check out and re-register on the second day. That's a weird extra step - you'd think this would happen enough that the computer would be able to figure it out. I wasn't recognized as a Priority Club member verbally but I did receive a bag with bottled water and snacks.
+The first thing that greeted me in my room was a large roach, still alive and squirming on its back. I snapped a photo (q.v.) before disposing of it, then got some unpacking done before going out for a while. I showed the photo to the desk staff - quietly and unobtrusively because I didn't want to be "that" guest. They offered to spray the room. It ended up not happening, which is probably just as well because the smell of Raid isn't exactly conducive to a good night's sleep.
+Later in the evening, I set up my laptop at the desk and started to work. I opened the drawer to store my flash drive - and it landed on my foot. There was a substantial hole in the drawer. (q.v.) Since my complaint about a roach was "resolved" by offering to spray...I stayed two nights. The initial reservation was for one night at the "advance booking" rate, then I had to add a second night just a few days before I came. For some reason, even though I kept the same room, I was told I had to check out and re-register on the second day. That's a weird extra step - you'd think this would happen enough that the computer would be able to figure it out. I wasn't recognized as a Priority Club member verbally but I did receive a bag with bottled water and snacks.The first thing that greeted me in my room was a large roach, still alive and squirming on its back. I snapped a photo (q.v.) before disposing of it, then got some unpacking done before going out for a while. I showed the photo to the desk staff - quietly and unobtrusively because I didn't want to be "that" guest. They offered to spray the room. It ended up not happening, which is probably just as well because the smell of Raid isn't exactly conducive to a good night's sleep.Later in the evening, I set up my laptop at the desk and started to work. I opened the drawer to store my flash drive - and it landed on my foot. There was a substantial hole in the drawer. (q.v.) Since my complaint about a roach was "resolved" by offering to spray poisonous chemicals in my room, I decided not to mention the desk.The lobby was scrupulously clean. I never entered or left without encountering someone cleaning. The hallway to the elevators takes guests past the meeting rooms, and for whatever reason the group using the rooms left unattended backpacks up and down the hallway. I saw several people have trouble navigating their rolling suitcases past all the backpacks.The breakfast area was clean and well-stocked. I did not use the pool or fitness rooms. I did print some things at the business center, which was clean and readily available.This is the really weird part - when I submitted this review to the IHG website, I got an e-mail message saying that they weren't going to post it because "the hotel management will be reaching out to you via e-mail within 24 hours." That never happened, so I wrote back and asked for the review to be posted. It's been two weeks and I've received no reply, nor has the review been posted.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r164236459-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1340,9 +2119,6 @@
     <t>Terrible staff, rude, condescending.  I travel a lot, and am used to occasional grouchy staff, but these guys are beyond anything I have experienced, top to bottom.  Worn carpets, smell of urine in the halls.  Room itself wan't too bad, "Breakfast" buffet was inedible. Go somewhere else.  Anywhere.MoreShow less</t>
   </si>
   <si>
-    <t>May 2013</t>
-  </si>
-  <si>
     <t>Terrible staff, rude, condescending.  I travel a lot, and am used to occasional grouchy staff, but these guys are beyond anything I have experienced, top to bottom.  Worn carpets, smell of urine in the halls.  Room itself wan't too bad, "Breakfast" buffet was inedible. Go somewhere else.  Anywhere.More</t>
   </si>
   <si>
@@ -1373,6 +2149,45 @@
     <t>The beds at this location are very comfortable.  It was very quiet and we slept well.  Love the goodie bags given to Priority Club members. We did not eat breakfast at the hotel so I cannot comment on that.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r158992014-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>158992014</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>Nice Holiday Inn Express, good location</t>
+  </si>
+  <si>
+    <t>An older hotel, but very nice and clean! Staff was very friendly at check in, breakfast was nice too! The Bath and Body Works shampoo and soap were a plus! With the hotel just off the freeway, there was little noise. MoreShow less</t>
+  </si>
+  <si>
+    <t>An older hotel, but very nice and clean! Staff was very friendly at check in, breakfast was nice too! The Bath and Body Works shampoo and soap were a plus! With the hotel just off the freeway, there was little noise. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r154266480-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>154266480</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>My husband and I had a great stay here this past weekend! They were friendly and courteous. They even gave us a welcome bag with water, chex mix, and oreos. Overall, it was a great stay, and we would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>My husband and I had a great stay here this past weekend! They were friendly and courteous. They even gave us a welcome bag with water, chex mix, and oreos. Overall, it was a great stay, and we would definitely stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r146173810-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1434,6 +2249,39 @@
   </si>
   <si>
     <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r128665508-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>128665508</t>
+  </si>
+  <si>
+    <t>04/26/2012</t>
+  </si>
+  <si>
+    <t>Very clean and nice hotel. Enjoyed the breakfast too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r126564416-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>126564416</t>
+  </si>
+  <si>
+    <t>03/23/2012</t>
+  </si>
+  <si>
+    <t>a perfect stay.</t>
+  </si>
+  <si>
+    <t>i couldn't have asked for a better stay. the staff had great attitudes. the rooms were CLEAN. i appreciate that they had free toiletries if needed (i didn't). nice free breakfasts which got me started for a conference. i was easily able to print out my boarding pass at the guest office. i used the gym (no stupid extra fee like some hotels). the beds and pillows were sooo comfortable!!! oh but my fridge didn't work. whatever. actually the room and hotel itself looked like it was just remodeled. i just remembered, when i checked in, which took seconds, they gave me a welcome package with chips and water. they really tried to be thoughtful to their guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>i couldn't have asked for a better stay. the staff had great attitudes. the rooms were CLEAN. i appreciate that they had free toiletries if needed (i didn't). nice free breakfasts which got me started for a conference. i was easily able to print out my boarding pass at the guest office. i used the gym (no stupid extra fee like some hotels). the beds and pillows were sooo comfortable!!! oh but my fridge didn't work. whatever. actually the room and hotel itself looked like it was just remodeled. i just remembered, when i checked in, which took seconds, they gave me a welcome package with chips and water. they really tried to be thoughtful to their guests.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r125552462-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
@@ -1506,6 +2354,45 @@
 Breakfast typical HIE.  Cheese omelettes and bacon, these were in the same heated cabinet so the omelettes tasted like smoked bacon, OK...After having a recent bad experience in a HIE in Texas, we were extremely pleased with the friendly reception staff who were also exceptionally helpful in trying to provide us with a quiet room in what is not a quiet area.  Although we could still hear the busy Interstate from our room, they had put us as far away from the road as they could.  Please note though if you want to sleep during the day, don’t get the room next to the housekeeping room, you won’t get much sleep once the laundry starts, the washing machine (I am assuming that was the cause) shakes the bedside lamp and table and the vibration can be felt through the floor.Good sized bathroom and bath towels.  The bed was extremely comfortable although the pillows could do with renewing, they were quite lumpy. There is a fridge and microwave in the room and a good sized work desk, really good facilities.  The hotel does provide room service via delivery service from local restaurants I believe.  We found the booklet advertising this after we had walked around the block trying to find somewhere to eat and had eventually ordered a Chinese meal to be delivered to our room.   We would have ordered an Italian meal via the hotel had we known.Breakfast typical HIE.  Cheese omelettes and bacon, these were in the same heated cabinet so the omelettes tasted like smoked bacon, OK if you like meat, no good for vegetarians.  There was a good selection of cereals, breads, muffins etc.  Coffee and juice was OK as well. There is an outside pool and hot tub, we did not try this as the weather was not suitable, but I would imagine the noise from the road would force you away fairly soon.We got a taxi booked by the hotel to the local mall and river way restaurant area.  Beware of this particular taxi company, the driver charged us $23 for the 3 mile trip; we got a different company back for $10.There are a couple of computers and a printer in the business centre, very handy, we printed off our boarding passes for our next days flights.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r120086985-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>120086985</t>
+  </si>
+  <si>
+    <t>11/02/2011</t>
+  </si>
+  <si>
+    <t>Quality Holiday Inn Express Near Spring &amp; The Woodlands</t>
+  </si>
+  <si>
+    <t>While visiting a relative, we stayed two nights at the Holiday Inn Express. On I-45 between Spring and The Woodlands, the motel provided a large, well-decorated room with a king bed, desk, cabinet and sofa.  The lobby is unique in that there are two large public areas in addition to the dining room.  The road noise did not seem to be a factor.  The complimentary wi-fi, cookies, newspaper, business center and the full breakfast made the stay even more enjoyable.  While the area is not exceptional, The Woodlands, one of the premier planned communities in Texas, is about 5 minutes north.  If a pleasant stay at a moderate price is your goal, then the Holiday Inn Express should be highly considered.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>While visiting a relative, we stayed two nights at the Holiday Inn Express. On I-45 between Spring and The Woodlands, the motel provided a large, well-decorated room with a king bed, desk, cabinet and sofa.  The lobby is unique in that there are two large public areas in addition to the dining room.  The road noise did not seem to be a factor.  The complimentary wi-fi, cookies, newspaper, business center and the full breakfast made the stay even more enjoyable.  While the area is not exceptional, The Woodlands, one of the premier planned communities in Texas, is about 5 minutes north.  If a pleasant stay at a moderate price is your goal, then the Holiday Inn Express should be highly considered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r119268541-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>119268541</t>
+  </si>
+  <si>
+    <t>10/13/2011</t>
+  </si>
+  <si>
+    <t>Very Nice - No Complaints</t>
+  </si>
+  <si>
+    <t>This was a nice HI Express, which include a microwave and mini ref and free breakfast.The breakfast includes hot and cold items. I've never seen a HI Express with meeing rooms, but this one has them. The fitness center is open 24 hours. The toilet handle needed adjusting and was immediately repaired. The side entrance door knob was missing and the door was not secured the first day. It was later secured, but the knob was still missing, yet operable. The mattress appeared new and was comfortable. The TV was the old tube type, but worked fine. It would have been nice to see it from the desk though. I had a UPS delivery problem and the front desk clerk was very helpful in assisting me track it down - it was delivered next door. The location is great - convenient to everything in that area of town and to the Hardy toll road, which has little to no traffic to/from IAH airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a nice HI Express, which include a microwave and mini ref and free breakfast.The breakfast includes hot and cold items. I've never seen a HI Express with meeing rooms, but this one has them. The fitness center is open 24 hours. The toilet handle needed adjusting and was immediately repaired. The side entrance door knob was missing and the door was not secured the first day. It was later secured, but the knob was still missing, yet operable. The mattress appeared new and was comfortable. The TV was the old tube type, but worked fine. It would have been nice to see it from the desk though. I had a UPS delivery problem and the front desk clerk was very helpful in assisting me track it down - it was delivered next door. The location is great - convenient to everything in that area of town and to the Hardy toll road, which has little to no traffic to/from IAH airport.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r119185936-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1521,9 +2408,6 @@
     <t>I spent a night here on Business last week, the rooms were clean and the people were friendly. You can't ask for much more than that. It is refreshing to stay in a place where you don't have to worry about what 'that stuff is' on the floors, tub or beds. Great place to stay.</t>
   </si>
   <si>
-    <t>October 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r117255277-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +2453,45 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r112354042-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>112354042</t>
+  </si>
+  <si>
+    <t>06/09/2011</t>
+  </si>
+  <si>
+    <t>Enjoyed out Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while attending a wedding in The Woodlands. The Hotels location was great. Right off the IH-45  and easy to find. Close to all that The Woodlands has to offer. The staff was very friendly and helpfull, including houskeeping... very pleasant.  Allthough, the rooms are in the process of being updated,( no flat screen, no microwave)  they were nice, clean and spacey. I would have liked to have had a microwave in my room, but one was offered in the lobby area when I called the front desk.  I loved the wet bar area, even though I did have to plug in the light for it to work.  On the weekend, they offered later breakfast hours which we enjoyed since we were on a leisurely trip, but, once the pancakes for that day are gone, they are gone. No more are offered even if there is 30 min. of  breakfast  time left. All in all the staff, location, and classicness of this hotel made our stay very enjoyable. If we travel to the area again we will stay at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while attending a wedding in The Woodlands. The Hotels location was great. Right off the IH-45  and easy to find. Close to all that The Woodlands has to offer. The staff was very friendly and helpfull, including houskeeping... very pleasant.  Allthough, the rooms are in the process of being updated,( no flat screen, no microwave)  they were nice, clean and spacey. I would have liked to have had a microwave in my room, but one was offered in the lobby area when I called the front desk.  I loved the wet bar area, even though I did have to plug in the light for it to work.  On the weekend, they offered later breakfast hours which we enjoyed since we were on a leisurely trip, but, once the pancakes for that day are gone, they are gone. No more are offered even if there is 30 min. of  breakfast  time left. All in all the staff, location, and classicness of this hotel made our stay very enjoyable. If we travel to the area again we will stay at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r98610177-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>98610177</t>
+  </si>
+  <si>
+    <t>03/01/2011</t>
+  </si>
+  <si>
+    <t>Comfortable Stay, Good Location</t>
+  </si>
+  <si>
+    <t>This was a standard Holiday Inn.  Accommodations were comfortable, staff was friendly, breakfast was excellent, and cookies were tasty.  There was mild noise from the room next door that could be heard from thin walls - but that is to be expected in these establishments.  They were accommodating with our late check out and provided an early check in as well.  Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r84323004-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1626,6 +2549,45 @@
     <t>May 2006</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r16275372-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>16275372</t>
+  </si>
+  <si>
+    <t>05/21/2008</t>
+  </si>
+  <si>
+    <t>Not a great stay</t>
+  </si>
+  <si>
+    <t>We booked online and took a flight from Philadelphia to Texas.  We arrived in the middle of the night only to be told they had no more rooms.  They claimed the internet overbooked rooms????  We had to stay at the La Quinta next door which was a very nice hotel.  The next day the Holiday Inn gave us an upgrade on the second floor.  It was a nice room except you could hear every footstep above you.  The guest in the room above us awoke at 5:00am only to powerwalk across the floor which kept me awake until they left at 8:00am.  I wish we could have stayed at the La Quinta.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>We booked online and took a flight from Philadelphia to Texas.  We arrived in the middle of the night only to be told they had no more rooms.  They claimed the internet overbooked rooms????  We had to stay at the La Quinta next door which was a very nice hotel.  The next day the Holiday Inn gave us an upgrade on the second floor.  It was a nice room except you could hear every footstep above you.  The guest in the room above us awoke at 5:00am only to powerwalk across the floor which kept me awake until they left at 8:00am.  I wish we could have stayed at the La Quinta.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r15961643-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>15961643</t>
+  </si>
+  <si>
+    <t>05/12/2008</t>
+  </si>
+  <si>
+    <t>Overall, not a great stay...</t>
+  </si>
+  <si>
+    <t>I stayed for 5 nights during a business trip.  This hotel is wood framed, so if you are on the 1st or 2nd floor you will hear every footstep of the people in the room above you.  I must have had a herd of cattle in the room above me based upon the amount of stomping and running around I heard.  If you are a light sleeper and need a very quiet environment, then this is not the hotel for you.There was also a noticable problem with insects on the property during my stay.  One morning, there was a Daddy-Long-Legs swimming in the gravy at the breakfast buffet, and I killed several other types of spiders while in my room.  Also, the housekeeping was substandard.  I returned to my room around 4pm every day, and two days in a row my  room had not been cleaned.  I had no problems using the wireless Internet.  That was one of the few highlights of my stay.  Thg staff that I encountered were friendly, although the check-in clerk did not offer me a Platinum upgrade nor the king bed room that I had requested.Overall, it's not a dump, but I've stayed in MUCH nicer HI Express properties.  So, I'd suggest looking elsewhere if you are staying in this part of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for 5 nights during a business trip.  This hotel is wood framed, so if you are on the 1st or 2nd floor you will hear every footstep of the people in the room above you.  I must have had a herd of cattle in the room above me based upon the amount of stomping and running around I heard.  If you are a light sleeper and need a very quiet environment, then this is not the hotel for you.There was also a noticable problem with insects on the property during my stay.  One morning, there was a Daddy-Long-Legs swimming in the gravy at the breakfast buffet, and I killed several other types of spiders while in my room.  Also, the housekeeping was substandard.  I returned to my room around 4pm every day, and two days in a row my  room had not been cleaned.  I had no problems using the wireless Internet.  That was one of the few highlights of my stay.  Thg staff that I encountered were friendly, although the check-in clerk did not offer me a Platinum upgrade nor the king bed room that I had requested.Overall, it's not a dump, but I've stayed in MUCH nicer HI Express properties.  So, I'd suggest looking elsewhere if you are staying in this part of Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r15106175-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
   </si>
   <si>
@@ -1684,6 +2646,39 @@
   </si>
   <si>
     <t>December 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r2970273-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>2970273</t>
+  </si>
+  <si>
+    <t>01/01/2005</t>
+  </si>
+  <si>
+    <t>not too bad</t>
+  </si>
+  <si>
+    <t>This hotel is not as bad as the previous review might suggest.  Although the place does suffer from some neglect, most everything was clean and comfortable.  The breakfast was really outstanding, with warm and tasty cinnamon rolls.  I had two comfortable nights of sleep (Dec. 29 and 30) and the housekeeping crew did a fine job.  This place is probably not worth $80 a night that is sometimes charged, but definitely worth $50 or or $60.  I paid $34 through a bargain website, and consider that quite a steal.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d223655-r2874609-Holiday_Inn_Express_Hotel_Suites_Houston_North_Spring-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>2874609</t>
+  </si>
+  <si>
+    <t>12/09/2004</t>
+  </si>
+  <si>
+    <t>Stay Away!</t>
+  </si>
+  <si>
+    <t>I really can't say anything nice about this hotel.  The hotel advertised High Speed Internet and it was not working.  The room was very worn and uncomfortable.  To keep this short and simple, Holiday Inn refunded me for my night's stay.</t>
+  </si>
+  <si>
+    <t>January 2005</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +3213,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2226,23 +3221,23 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
         <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2258,52 +3253,54 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -2319,34 +3316,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2357,14 +3354,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s">
-        <v>74</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -2380,7 +3373,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2389,26 +3382,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>82</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -2418,14 +3407,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X5" t="s">
-        <v>84</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -2441,7 +3426,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2450,49 +3435,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2508,7 +3487,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2517,25 +3496,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2547,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2569,7 +3548,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2578,25 +3557,25 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2608,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -2630,7 +3609,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2639,47 +3618,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" t="s">
-        <v>118</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -2695,7 +3666,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2704,43 +3675,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
-      <c r="P10" t="s"/>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -2756,7 +3733,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2765,25 +3742,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2795,13 +3772,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2817,7 +3794,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2826,39 +3803,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
         <v>129</v>
       </c>
-      <c r="K12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" t="s">
-        <v>139</v>
-      </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>132</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
@@ -2874,7 +3861,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2883,45 +3870,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -2937,58 +3922,52 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
         <v>145</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>146</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>147</v>
-      </c>
-      <c r="K14" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" t="s">
-        <v>149</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>150</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -3004,36 +3983,38 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
         <v>154</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>155</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>156</v>
       </c>
-      <c r="K15" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" t="s">
-        <v>158</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>159</v>
-      </c>
       <c r="O15" t="s">
-        <v>82</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="n">
         <v>5</v>
@@ -3041,19 +4022,19 @@
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -3069,56 +4050,52 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
         <v>163</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>164</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>165</v>
       </c>
-      <c r="K16" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" t="s">
-        <v>167</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>159</v>
-      </c>
       <c r="O16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
         <v>168</v>
-      </c>
-      <c r="X16" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -3134,58 +4111,56 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
         <v>171</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>172</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>173</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
         <v>174</v>
       </c>
-      <c r="L17" t="s">
-        <v>175</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>176</v>
-      </c>
-      <c r="O17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
         <v>177</v>
-      </c>
-      <c r="X17" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="18">
@@ -3201,31 +4176,31 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
         <v>180</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>181</v>
       </c>
-      <c r="J18" t="s">
-        <v>182</v>
-      </c>
-      <c r="K18" t="s">
-        <v>183</v>
-      </c>
-      <c r="L18" t="s">
-        <v>184</v>
-      </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
@@ -3240,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
@@ -3262,7 +4237,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3271,25 +4246,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3301,13 +4276,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
@@ -3323,7 +4298,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3332,43 +4307,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
@@ -3384,7 +4365,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3393,49 +4374,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="X21" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
@@ -3451,7 +4426,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3460,47 +4435,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>4</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>212</v>
-      </c>
-      <c r="X22" t="s">
-        <v>213</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
@@ -3516,7 +4483,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3525,47 +4492,45 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>227</v>
-      </c>
-      <c r="X23" t="s">
-        <v>228</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
@@ -3581,7 +4546,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3590,25 +4555,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3620,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
@@ -3642,7 +4607,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3651,43 +4616,47 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="X25" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
@@ -3703,7 +4672,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3712,47 +4681,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
-      <c r="S26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="X26" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="Y26" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
@@ -3768,7 +4739,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3777,39 +4748,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>245</v>
+      </c>
+      <c r="X27" t="s">
+        <v>246</v>
+      </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28">
@@ -3825,7 +4804,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3834,45 +4813,47 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
+        <v>254</v>
+      </c>
       <c r="Y28" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
@@ -3888,7 +4869,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3897,45 +4878,49 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>262</v>
+      </c>
+      <c r="X29" t="s">
+        <v>263</v>
+      </c>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
@@ -3951,7 +4936,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3960,43 +4945,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>271</v>
+      </c>
+      <c r="X30" t="s">
+        <v>272</v>
+      </c>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
@@ -4012,56 +4997,58 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
         <v>278</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>279</v>
-      </c>
-      <c r="J31" t="s">
-        <v>280</v>
-      </c>
-      <c r="K31" t="s">
-        <v>281</v>
-      </c>
-      <c r="L31" t="s">
-        <v>282</v>
-      </c>
       <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>270</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
         <v>3</v>
       </c>
-      <c r="N31" t="s">
-        <v>283</v>
-      </c>
-      <c r="O31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="X31" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Y31" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
@@ -4077,56 +5064,52 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s">
+        <v>286</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>287</v>
-      </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>288</v>
-      </c>
-      <c r="J32" t="s">
-        <v>289</v>
-      </c>
-      <c r="K32" t="s">
-        <v>290</v>
-      </c>
-      <c r="L32" t="s">
-        <v>291</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s">
-        <v>292</v>
       </c>
       <c r="O32" t="s">
         <v>53</v>
       </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="X32" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Y32" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
@@ -4142,52 +5125,52 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
         <v>296</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>297</v>
-      </c>
-      <c r="J33" t="s">
-        <v>298</v>
-      </c>
-      <c r="K33" t="s">
-        <v>299</v>
-      </c>
-      <c r="L33" t="s">
-        <v>300</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>292</v>
-      </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>4</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>297</v>
+      </c>
+      <c r="X33" t="s">
+        <v>298</v>
+      </c>
       <c r="Y33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34">
@@ -4203,56 +5186,58 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
         <v>301</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>302</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>303</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>304</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
         <v>305</v>
       </c>
-      <c r="M34" t="n">
-        <v>3</v>
-      </c>
-      <c r="N34" t="s">
-        <v>292</v>
-      </c>
       <c r="O34" t="s">
-        <v>132</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
+        <v>297</v>
+      </c>
+      <c r="X34" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y34" t="s">
         <v>306</v>
-      </c>
-      <c r="X34" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="35">
@@ -4268,58 +5253,52 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" t="s">
         <v>309</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>310</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>311</v>
       </c>
-      <c r="K35" t="s">
-        <v>312</v>
-      </c>
-      <c r="L35" t="s">
-        <v>313</v>
-      </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="O35" t="s">
-        <v>82</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="X35" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Y35" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36">
@@ -4335,55 +5314,49 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J36" t="s">
+        <v>317</v>
+      </c>
+      <c r="K36" t="s">
         <v>318</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
         <v>319</v>
       </c>
-      <c r="J36" t="s">
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>320</v>
-      </c>
-      <c r="K36" t="s">
-        <v>321</v>
-      </c>
-      <c r="L36" t="s">
-        <v>322</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s">
-        <v>314</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
       </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="X36" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Y36" t="s">
         <v>323</v>
@@ -4423,27 +5396,37 @@
         <v>328</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>320</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="X37" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="Y37" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
@@ -4459,7 +5442,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4468,47 +5451,47 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="O38" t="s">
         <v>53</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
+        <v>329</v>
+      </c>
+      <c r="X38" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y38" t="s">
         <v>336</v>
-      </c>
-      <c r="X38" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="39">
@@ -4524,54 +5507,58 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J39" t="s">
         <v>339</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>340</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>341</v>
       </c>
-      <c r="K39" t="s">
-        <v>342</v>
-      </c>
-      <c r="L39" t="s">
-        <v>343</v>
-      </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="O39" t="s">
-        <v>118</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
       <c r="Q39" t="n">
         <v>4</v>
       </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>342</v>
+      </c>
+      <c r="X39" t="s">
+        <v>343</v>
+      </c>
       <c r="Y39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40">
@@ -4608,25 +5595,23 @@
         <v>349</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>344</v>
+        <v>226</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
       </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4675,27 +5660,35 @@
         <v>357</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
         <v>358</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>359</v>
+      </c>
+      <c r="X41" t="s">
+        <v>360</v>
+      </c>
       <c r="Y41" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
@@ -4711,7 +5704,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4720,43 +5713,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J42" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K42" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L42" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P42" t="s"/>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>367</v>
+      </c>
+      <c r="X42" t="s">
+        <v>368</v>
+      </c>
       <c r="Y42" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43">
@@ -4772,7 +5765,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4781,22 +5774,26 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="J43" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K43" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+      <c r="N43" t="s">
+        <v>375</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
@@ -4807,13 +5804,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="X43" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Y43" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44">
@@ -4829,7 +5826,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4838,53 +5835,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="J44" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="X44" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Y44" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
@@ -4900,7 +5887,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4909,26 +5896,22 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="J45" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K45" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
-      </c>
-      <c r="N45" t="s">
-        <v>387</v>
-      </c>
-      <c r="O45" t="s">
-        <v>63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
@@ -4938,14 +5921,10 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>388</v>
-      </c>
-      <c r="X45" t="s">
-        <v>389</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46">
@@ -4961,7 +5940,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4970,53 +5949,47 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J46" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K46" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L46" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="X46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y46" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47">
@@ -5032,7 +6005,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5041,53 +6014,39 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L47" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
+        <v>384</v>
+      </c>
+      <c r="O47" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
         <v>405</v>
-      </c>
-      <c r="O47" t="s">
-        <v>63</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
-      <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="s">
-        <v>406</v>
-      </c>
-      <c r="X47" t="s">
-        <v>407</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="48">
@@ -5103,44 +6062,40 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" t="s">
         <v>409</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="L48" t="s">
         <v>410</v>
       </c>
-      <c r="J48" t="s">
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
         <v>411</v>
       </c>
-      <c r="K48" t="s">
-        <v>333</v>
-      </c>
-      <c r="L48" t="s">
-        <v>412</v>
-      </c>
-      <c r="M48" t="n">
-        <v>4</v>
-      </c>
-      <c r="N48" t="s">
-        <v>405</v>
-      </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
         <v>5</v>
       </c>
@@ -5151,14 +6106,10 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>406</v>
-      </c>
-      <c r="X48" t="s">
-        <v>407</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49">
@@ -5174,52 +6125,54 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>413</v>
+      </c>
+      <c r="J49" t="s">
         <v>414</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>415</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>416</v>
       </c>
-      <c r="K49" t="s">
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
         <v>417</v>
       </c>
-      <c r="L49" t="s">
-        <v>418</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>419</v>
-      </c>
       <c r="O49" t="s">
-        <v>118</v>
-      </c>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
       <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>420</v>
-      </c>
-      <c r="X49" t="s">
-        <v>421</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50">
@@ -5235,7 +6188,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5244,49 +6197,39 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J50" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K50" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L50" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>417</v>
+      </c>
+      <c r="O50" t="s">
+        <v>67</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>4</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>428</v>
-      </c>
-      <c r="X50" t="s">
-        <v>429</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51">
@@ -5302,7 +6245,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5311,53 +6254,45 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J51" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K51" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L51" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
       <c r="R51" t="n">
-        <v>2</v>
-      </c>
-      <c r="S51" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>428</v>
-      </c>
-      <c r="X51" t="s">
-        <v>429</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52">
@@ -5373,7 +6308,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5382,43 +6317,43 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="J52" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K52" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
-      </c>
-      <c r="P52" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>444</v>
-      </c>
-      <c r="X52" t="s">
-        <v>445</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="53">
@@ -5434,7 +6369,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5443,53 +6378,47 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="J53" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="K53" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>4</v>
-      </c>
-      <c r="R53" t="n">
         <v>3</v>
       </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="X53" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Y53" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54">
@@ -5505,7 +6434,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5514,51 +6443,39 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="J54" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="K54" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="L54" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P54" t="s"/>
-      <c r="Q54" t="n">
-        <v>2</v>
-      </c>
-      <c r="R54" t="n">
-        <v>3</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>1</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>459</v>
-      </c>
-      <c r="X54" t="s">
-        <v>460</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55">
@@ -5574,7 +6491,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5583,49 +6500,39 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="J55" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="K55" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="L55" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
-      </c>
-      <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>4</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56">
@@ -5641,7 +6548,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5650,49 +6557,47 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="J56" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="K56" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="L56" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>458</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
       <c r="P56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="X56" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="Y56" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57">
@@ -5708,7 +6613,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5717,41 +6622,35 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="J57" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="K57" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="L57" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="n">
         <v>3</v>
       </c>
-      <c r="R57" t="n">
-        <v>3</v>
-      </c>
-      <c r="S57" t="n">
-        <v>4</v>
-      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5759,7 +6658,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58">
@@ -5775,7 +6674,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5784,49 +6683,47 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="J58" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="K58" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="L58" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
-      <c r="R58" t="n">
         <v>3</v>
       </c>
-      <c r="S58" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>472</v>
+      </c>
+      <c r="X58" t="s">
+        <v>473</v>
+      </c>
       <c r="Y58" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59">
@@ -5842,7 +6739,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5851,49 +6748,47 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="J59" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="K59" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="L59" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
       <c r="R59" t="n">
         <v>4</v>
       </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>481</v>
+      </c>
+      <c r="X59" t="s">
+        <v>482</v>
+      </c>
       <c r="Y59" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60">
@@ -5909,7 +6804,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5918,49 +6813,49 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="J60" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="K60" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="L60" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
       <c r="S60" t="n">
         <v>3</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="X60" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="Y60" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61">
@@ -5976,7 +6871,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5985,34 +6880,34 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="J61" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="K61" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="L61" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="s"/>
-      <c r="R61" t="s"/>
-      <c r="S61" t="n">
-        <v>4</v>
-      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
         <v>4</v>
@@ -6020,10 +6915,14 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>498</v>
+      </c>
+      <c r="X61" t="s">
+        <v>499</v>
+      </c>
       <c r="Y61" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62">
@@ -6039,7 +6938,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6048,49 +6947,49 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="J62" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="K62" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="L62" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="M62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="O62" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>4</v>
-      </c>
-      <c r="R62" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
       <c r="S62" t="n">
         <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>498</v>
+      </c>
+      <c r="X62" t="s">
+        <v>499</v>
+      </c>
       <c r="Y62" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63">
@@ -6106,7 +7005,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6115,49 +7014,39 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="J63" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="K63" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="L63" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
-      </c>
-      <c r="N63" t="s">
-        <v>522</v>
-      </c>
-      <c r="O63" t="s">
-        <v>82</v>
-      </c>
-      <c r="P63" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>4</v>
-      </c>
-      <c r="R63" t="n">
-        <v>4</v>
-      </c>
-      <c r="S63" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>3</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>498</v>
+      </c>
+      <c r="X63" t="s">
+        <v>499</v>
+      </c>
       <c r="Y63" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64">
@@ -6173,7 +7062,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6182,49 +7071,43 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="J64" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="K64" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="L64" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
-      </c>
-      <c r="P64" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>3</v>
-      </c>
-      <c r="R64" t="n">
-        <v>4</v>
-      </c>
-      <c r="S64" t="n">
-        <v>3</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>3</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>518</v>
+      </c>
+      <c r="X64" t="s">
+        <v>519</v>
+      </c>
       <c r="Y64" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65">
@@ -6240,7 +7123,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6249,49 +7132,43 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="J65" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="K65" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="L65" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="O65" t="s">
-        <v>63</v>
-      </c>
-      <c r="P65" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1</v>
-      </c>
-      <c r="R65" t="n">
-        <v>3</v>
-      </c>
-      <c r="S65" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>4</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>518</v>
+      </c>
+      <c r="X65" t="s">
+        <v>519</v>
+      </c>
       <c r="Y65" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="66">
@@ -6307,7 +7184,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6316,49 +7193,47 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="J66" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="K66" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="L66" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="O66" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>3</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2</v>
-      </c>
-      <c r="S66" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>533</v>
+      </c>
+      <c r="X66" t="s">
+        <v>534</v>
+      </c>
       <c r="Y66" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67">
@@ -6374,7 +7249,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6383,41 +7258,37 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="J67" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K67" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="L67" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="O67" t="s">
-        <v>82</v>
-      </c>
-      <c r="P67" t="n">
-        <v>3</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="P67" t="s"/>
       <c r="Q67" t="n">
         <v>4</v>
       </c>
       <c r="R67" t="n">
-        <v>3</v>
-      </c>
-      <c r="S67" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6425,7 +7296,3169 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>542</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>543</v>
+      </c>
+      <c r="J68" t="s">
+        <v>544</v>
+      </c>
+      <c r="K68" t="s">
+        <v>545</v>
+      </c>
+      <c r="L68" t="s">
+        <v>546</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>541</v>
+      </c>
+      <c r="O68" t="s">
+        <v>61</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>547</v>
+      </c>
+      <c r="X68" t="s">
         <v>548</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>550</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>551</v>
+      </c>
+      <c r="J69" t="s">
+        <v>552</v>
+      </c>
+      <c r="K69" t="s">
+        <v>553</v>
+      </c>
+      <c r="L69" t="s">
+        <v>554</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>555</v>
+      </c>
+      <c r="O69" t="s">
+        <v>61</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>556</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>557</v>
+      </c>
+      <c r="J70" t="s">
+        <v>558</v>
+      </c>
+      <c r="K70" t="s">
+        <v>559</v>
+      </c>
+      <c r="L70" t="s">
+        <v>560</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>555</v>
+      </c>
+      <c r="O70" t="s">
+        <v>61</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>561</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>562</v>
+      </c>
+      <c r="J71" t="s">
+        <v>563</v>
+      </c>
+      <c r="K71" t="s">
+        <v>564</v>
+      </c>
+      <c r="L71" t="s">
+        <v>565</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>555</v>
+      </c>
+      <c r="O71" t="s">
+        <v>67</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>566</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>567</v>
+      </c>
+      <c r="J72" t="s">
+        <v>568</v>
+      </c>
+      <c r="K72" t="s">
+        <v>569</v>
+      </c>
+      <c r="L72" t="s">
+        <v>570</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>571</v>
+      </c>
+      <c r="O72" t="s">
+        <v>61</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>572</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>573</v>
+      </c>
+      <c r="J73" t="s">
+        <v>574</v>
+      </c>
+      <c r="K73" t="s">
+        <v>575</v>
+      </c>
+      <c r="L73" t="s">
+        <v>576</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>577</v>
+      </c>
+      <c r="X73" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>580</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>581</v>
+      </c>
+      <c r="J74" t="s">
+        <v>582</v>
+      </c>
+      <c r="K74" t="s">
+        <v>583</v>
+      </c>
+      <c r="L74" t="s">
+        <v>584</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>571</v>
+      </c>
+      <c r="O74" t="s">
+        <v>61</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>585</v>
+      </c>
+      <c r="X74" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>588</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>589</v>
+      </c>
+      <c r="J75" t="s">
+        <v>590</v>
+      </c>
+      <c r="K75" t="s">
+        <v>591</v>
+      </c>
+      <c r="L75" t="s">
+        <v>592</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>593</v>
+      </c>
+      <c r="O75" t="s">
+        <v>67</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>594</v>
+      </c>
+      <c r="X75" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>598</v>
+      </c>
+      <c r="J76" t="s">
+        <v>599</v>
+      </c>
+      <c r="K76" t="s">
+        <v>600</v>
+      </c>
+      <c r="L76" t="s">
+        <v>601</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>593</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>602</v>
+      </c>
+      <c r="X76" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>605</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>606</v>
+      </c>
+      <c r="J77" t="s">
+        <v>607</v>
+      </c>
+      <c r="K77" t="s">
+        <v>608</v>
+      </c>
+      <c r="L77" t="s">
+        <v>609</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>610</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>611</v>
+      </c>
+      <c r="X77" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>614</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>615</v>
+      </c>
+      <c r="J78" t="s">
+        <v>616</v>
+      </c>
+      <c r="K78" t="s">
+        <v>617</v>
+      </c>
+      <c r="L78" t="s">
+        <v>618</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>619</v>
+      </c>
+      <c r="O78" t="s">
+        <v>61</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>620</v>
+      </c>
+      <c r="X78" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>623</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>624</v>
+      </c>
+      <c r="J79" t="s">
+        <v>625</v>
+      </c>
+      <c r="K79" t="s">
+        <v>626</v>
+      </c>
+      <c r="L79" t="s">
+        <v>627</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>628</v>
+      </c>
+      <c r="X79" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>631</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>632</v>
+      </c>
+      <c r="J80" t="s">
+        <v>633</v>
+      </c>
+      <c r="K80" t="s">
+        <v>634</v>
+      </c>
+      <c r="L80" t="s">
+        <v>635</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>636</v>
+      </c>
+      <c r="O80" t="s">
+        <v>67</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>637</v>
+      </c>
+      <c r="X80" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>640</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>641</v>
+      </c>
+      <c r="J81" t="s">
+        <v>642</v>
+      </c>
+      <c r="K81" t="s">
+        <v>643</v>
+      </c>
+      <c r="L81" t="s">
+        <v>644</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>645</v>
+      </c>
+      <c r="O81" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>637</v>
+      </c>
+      <c r="X81" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>647</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>648</v>
+      </c>
+      <c r="J82" t="s">
+        <v>649</v>
+      </c>
+      <c r="K82" t="s">
+        <v>531</v>
+      </c>
+      <c r="L82" t="s">
+        <v>650</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>645</v>
+      </c>
+      <c r="O82" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>637</v>
+      </c>
+      <c r="X82" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>652</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>653</v>
+      </c>
+      <c r="J83" t="s">
+        <v>654</v>
+      </c>
+      <c r="K83" t="s">
+        <v>655</v>
+      </c>
+      <c r="L83" t="s">
+        <v>656</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>657</v>
+      </c>
+      <c r="O83" t="s">
+        <v>174</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>658</v>
+      </c>
+      <c r="X83" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>661</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>662</v>
+      </c>
+      <c r="J84" t="s">
+        <v>663</v>
+      </c>
+      <c r="K84" t="s">
+        <v>664</v>
+      </c>
+      <c r="L84" t="s">
+        <v>665</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>666</v>
+      </c>
+      <c r="X84" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>669</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>670</v>
+      </c>
+      <c r="J85" t="s">
+        <v>671</v>
+      </c>
+      <c r="K85" t="s">
+        <v>672</v>
+      </c>
+      <c r="L85" t="s">
+        <v>673</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>674</v>
+      </c>
+      <c r="O85" t="s">
+        <v>202</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>675</v>
+      </c>
+      <c r="X85" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>678</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>679</v>
+      </c>
+      <c r="J86" t="s">
+        <v>680</v>
+      </c>
+      <c r="K86" t="s">
+        <v>681</v>
+      </c>
+      <c r="L86" t="s">
+        <v>682</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>683</v>
+      </c>
+      <c r="X86" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>686</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>687</v>
+      </c>
+      <c r="J87" t="s">
+        <v>688</v>
+      </c>
+      <c r="K87" t="s">
+        <v>689</v>
+      </c>
+      <c r="L87" t="s">
+        <v>690</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>674</v>
+      </c>
+      <c r="O87" t="s">
+        <v>61</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>683</v>
+      </c>
+      <c r="X87" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>692</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>693</v>
+      </c>
+      <c r="J88" t="s">
+        <v>694</v>
+      </c>
+      <c r="K88" t="s">
+        <v>695</v>
+      </c>
+      <c r="L88" t="s">
+        <v>696</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>697</v>
+      </c>
+      <c r="O88" t="s">
+        <v>61</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>698</v>
+      </c>
+      <c r="X88" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>701</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>702</v>
+      </c>
+      <c r="J89" t="s">
+        <v>703</v>
+      </c>
+      <c r="K89" t="s">
+        <v>704</v>
+      </c>
+      <c r="L89" t="s">
+        <v>705</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>698</v>
+      </c>
+      <c r="X89" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>707</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>708</v>
+      </c>
+      <c r="J90" t="s">
+        <v>709</v>
+      </c>
+      <c r="K90" t="s">
+        <v>710</v>
+      </c>
+      <c r="L90" t="s">
+        <v>711</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>712</v>
+      </c>
+      <c r="O90" t="s">
+        <v>67</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>698</v>
+      </c>
+      <c r="X90" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>714</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>715</v>
+      </c>
+      <c r="J91" t="s">
+        <v>716</v>
+      </c>
+      <c r="K91" t="s">
+        <v>717</v>
+      </c>
+      <c r="L91" t="s">
+        <v>718</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>719</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>698</v>
+      </c>
+      <c r="X91" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>721</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>722</v>
+      </c>
+      <c r="J92" t="s">
+        <v>723</v>
+      </c>
+      <c r="K92" t="s">
+        <v>724</v>
+      </c>
+      <c r="L92" t="s">
+        <v>725</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>719</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>726</v>
+      </c>
+      <c r="X92" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>729</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>730</v>
+      </c>
+      <c r="J93" t="s">
+        <v>731</v>
+      </c>
+      <c r="K93" t="s">
+        <v>732</v>
+      </c>
+      <c r="L93" t="s">
+        <v>733</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>734</v>
+      </c>
+      <c r="O93" t="s">
+        <v>61</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>735</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>736</v>
+      </c>
+      <c r="J94" t="s">
+        <v>737</v>
+      </c>
+      <c r="K94" t="s">
+        <v>564</v>
+      </c>
+      <c r="L94" t="s">
+        <v>738</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>739</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>740</v>
+      </c>
+      <c r="J95" t="s">
+        <v>741</v>
+      </c>
+      <c r="K95" t="s">
+        <v>742</v>
+      </c>
+      <c r="L95" t="s">
+        <v>743</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>744</v>
+      </c>
+      <c r="O95" t="s">
+        <v>61</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>746</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>747</v>
+      </c>
+      <c r="J96" t="s">
+        <v>748</v>
+      </c>
+      <c r="K96" t="s">
+        <v>749</v>
+      </c>
+      <c r="L96" t="s">
+        <v>750</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>751</v>
+      </c>
+      <c r="X96" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>754</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>755</v>
+      </c>
+      <c r="J97" t="s">
+        <v>756</v>
+      </c>
+      <c r="K97" t="s">
+        <v>757</v>
+      </c>
+      <c r="L97" t="s">
+        <v>758</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>759</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>761</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>762</v>
+      </c>
+      <c r="J98" t="s">
+        <v>763</v>
+      </c>
+      <c r="K98" t="s">
+        <v>764</v>
+      </c>
+      <c r="L98" t="s">
+        <v>765</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>766</v>
+      </c>
+      <c r="O98" t="s">
+        <v>61</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>768</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>769</v>
+      </c>
+      <c r="J99" t="s">
+        <v>770</v>
+      </c>
+      <c r="K99" t="s">
+        <v>771</v>
+      </c>
+      <c r="L99" t="s">
+        <v>772</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>773</v>
+      </c>
+      <c r="O99" t="s">
+        <v>67</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>775</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>776</v>
+      </c>
+      <c r="J100" t="s">
+        <v>777</v>
+      </c>
+      <c r="K100" t="s">
+        <v>778</v>
+      </c>
+      <c r="L100" t="s">
+        <v>779</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>773</v>
+      </c>
+      <c r="O100" t="s">
+        <v>61</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>781</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>782</v>
+      </c>
+      <c r="J101" t="s">
+        <v>783</v>
+      </c>
+      <c r="K101" t="s">
+        <v>784</v>
+      </c>
+      <c r="L101" t="s">
+        <v>785</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>773</v>
+      </c>
+      <c r="O101" t="s">
+        <v>61</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>786</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>787</v>
+      </c>
+      <c r="J102" t="s">
+        <v>788</v>
+      </c>
+      <c r="K102" t="s">
+        <v>789</v>
+      </c>
+      <c r="L102" t="s">
+        <v>790</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>791</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>792</v>
+      </c>
+      <c r="X102" t="s">
+        <v>793</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>795</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>796</v>
+      </c>
+      <c r="J103" t="s">
+        <v>797</v>
+      </c>
+      <c r="K103" t="s">
+        <v>798</v>
+      </c>
+      <c r="L103" t="s">
+        <v>799</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>800</v>
+      </c>
+      <c r="O103" t="s">
+        <v>61</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>801</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>802</v>
+      </c>
+      <c r="J104" t="s">
+        <v>803</v>
+      </c>
+      <c r="K104" t="s">
+        <v>804</v>
+      </c>
+      <c r="L104" t="s">
+        <v>805</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>806</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>808</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>809</v>
+      </c>
+      <c r="J105" t="s">
+        <v>810</v>
+      </c>
+      <c r="K105" t="s">
+        <v>811</v>
+      </c>
+      <c r="L105" t="s">
+        <v>812</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>813</v>
+      </c>
+      <c r="O105" t="s">
+        <v>67</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>814</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>815</v>
+      </c>
+      <c r="J106" t="s">
+        <v>816</v>
+      </c>
+      <c r="K106" t="s">
+        <v>817</v>
+      </c>
+      <c r="L106" t="s">
+        <v>818</v>
+      </c>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s">
+        <v>819</v>
+      </c>
+      <c r="O106" t="s">
+        <v>174</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>820</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>821</v>
+      </c>
+      <c r="J107" t="s">
+        <v>822</v>
+      </c>
+      <c r="K107" t="s">
+        <v>823</v>
+      </c>
+      <c r="L107" t="s">
+        <v>824</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>825</v>
+      </c>
+      <c r="O107" t="s">
+        <v>67</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>827</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>828</v>
+      </c>
+      <c r="J108" t="s">
+        <v>829</v>
+      </c>
+      <c r="K108" t="s">
+        <v>830</v>
+      </c>
+      <c r="L108" t="s">
+        <v>831</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>832</v>
+      </c>
+      <c r="O108" t="s">
+        <v>61</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>3</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>833</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>834</v>
+      </c>
+      <c r="J109" t="s">
+        <v>835</v>
+      </c>
+      <c r="K109" t="s">
+        <v>836</v>
+      </c>
+      <c r="L109" t="s">
+        <v>837</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>838</v>
+      </c>
+      <c r="O109" t="s">
+        <v>61</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>840</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>841</v>
+      </c>
+      <c r="J110" t="s">
+        <v>842</v>
+      </c>
+      <c r="K110" t="s">
+        <v>843</v>
+      </c>
+      <c r="L110" t="s">
+        <v>844</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="s">
+        <v>838</v>
+      </c>
+      <c r="O110" t="s">
+        <v>61</v>
+      </c>
+      <c r="P110" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>2</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>846</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>847</v>
+      </c>
+      <c r="J111" t="s">
+        <v>848</v>
+      </c>
+      <c r="K111" t="s">
+        <v>849</v>
+      </c>
+      <c r="L111" t="s">
+        <v>850</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>851</v>
+      </c>
+      <c r="O111" t="s">
+        <v>61</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>853</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>854</v>
+      </c>
+      <c r="J112" t="s">
+        <v>855</v>
+      </c>
+      <c r="K112" t="s">
+        <v>856</v>
+      </c>
+      <c r="L112" t="s">
+        <v>857</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s">
+        <v>858</v>
+      </c>
+      <c r="O112" t="s">
+        <v>202</v>
+      </c>
+      <c r="P112" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>3</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2</v>
+      </c>
+      <c r="S112" t="n">
+        <v>3</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>860</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>861</v>
+      </c>
+      <c r="J113" t="s">
+        <v>862</v>
+      </c>
+      <c r="K113" t="s">
+        <v>863</v>
+      </c>
+      <c r="L113" t="s">
+        <v>864</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="s">
+        <v>865</v>
+      </c>
+      <c r="O113" t="s">
+        <v>67</v>
+      </c>
+      <c r="P113" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>866</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>867</v>
+      </c>
+      <c r="J114" t="s">
+        <v>868</v>
+      </c>
+      <c r="K114" t="s">
+        <v>869</v>
+      </c>
+      <c r="L114" t="s">
+        <v>870</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="s"/>
+      <c r="O114" t="s"/>
+      <c r="P114" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>4</v>
+      </c>
+      <c r="R114" t="s"/>
+      <c r="S114" t="n">
+        <v>3</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>3</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>36438</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>871</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>872</v>
+      </c>
+      <c r="J115" t="s">
+        <v>873</v>
+      </c>
+      <c r="K115" t="s">
+        <v>874</v>
+      </c>
+      <c r="L115" t="s">
+        <v>875</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
+        <v>876</v>
+      </c>
+      <c r="O115" t="s">
+        <v>61</v>
+      </c>
+      <c r="P115" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" t="s"/>
+      <c r="S115" t="n">
+        <v>2</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>1</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>875</v>
       </c>
     </row>
   </sheetData>
